--- a/docs/Algorithms comparsion/Algorithm_1.xlsx
+++ b/docs/Algorithms comparsion/Algorithm_1.xlsx
@@ -1659,7 +1659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1682,20 +1682,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1978,28 +2021,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U415"/>
+  <dimension ref="A1:U417"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D381" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N413" sqref="N413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="17.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="10" width="17.1640625" customWidth="1"/>
-    <col min="11" max="11" width="22.4140625" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.58203125" customWidth="1"/>
+    <col min="11" max="11" width="26.4140625" customWidth="1"/>
+    <col min="12" max="12" width="22.9140625" customWidth="1"/>
     <col min="13" max="13" width="14.08203125" customWidth="1"/>
     <col min="14" max="14" width="16.75" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" customWidth="1"/>
     <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" customWidth="1"/>
+    <col min="25" max="25" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>522</v>
       </c>
@@ -2024,6 +2072,11 @@
       <c r="H1" t="s">
         <v>521</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
       <c r="N1" t="s">
         <v>522</v>
       </c>
@@ -2074,6 +2127,18 @@
       <c r="H2" s="1">
         <v>43072.370787037034</v>
       </c>
+      <c r="J2">
+        <f>ABS(E2-R2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>ABS(F2-S2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>ABS(G2-T2)</f>
+        <v>0</v>
+      </c>
       <c r="N2" t="s">
         <v>1</v>
       </c>
@@ -2124,6 +2189,18 @@
       <c r="H3" s="1">
         <v>43072.377754629626</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">ABS(E3-R3)</f>
+        <v>1.5317253797775265E-5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">ABS(F3-S3)</f>
+        <v>9.6891606986559964E-6</v>
+      </c>
+      <c r="L3">
+        <f>ABS(G3-T3)</f>
+        <v>0.73003504651398998</v>
+      </c>
       <c r="N3" t="s">
         <v>3</v>
       </c>
@@ -2174,11 +2251,18 @@
       <c r="H4" s="1">
         <v>43072.380011574074</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.4478962830111186E-4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>2.3186399479868669E-4</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="2">ABS(G4-T4)</f>
+        <v>1.3144519782799762</v>
+      </c>
       <c r="N4" t="s">
         <v>5</v>
       </c>
@@ -2229,9 +2313,18 @@
       <c r="H5" s="1">
         <v>43072.365069444444</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N5" t="s">
         <v>6</v>
       </c>
@@ -2279,14 +2372,17 @@
       <c r="H6" s="1">
         <v>43072.36209490741</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>528</v>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>6.6473183203186181E-5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1.6906188797349841E-5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>4.3714263724680222</v>
       </c>
       <c r="N6" t="s">
         <v>7</v>
@@ -2338,16 +2434,16 @@
       <c r="H7" s="1">
         <v>43072.359340277777</v>
       </c>
-      <c r="J7" s="4">
-        <f>ABS(E2:E415-R2:R415)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f>ABS(F2:F415-S2:S415)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <f>ABS(G2:G415-T2:T415)</f>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" t="s">
@@ -2400,6 +2496,18 @@
       <c r="H8" s="1">
         <v>43072.377754629626</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>6.8887155897812136E-5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2.9791010597080003E-5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>2.4549579897640115</v>
+      </c>
       <c r="N8" t="s">
         <v>10</v>
       </c>
@@ -2450,6 +2558,18 @@
       <c r="H9" s="1">
         <v>43072.366122685184</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N9" t="s">
         <v>11</v>
       </c>
@@ -2500,6 +2620,18 @@
       <c r="H10" s="1">
         <v>43072.359201388892</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N10" t="s">
         <v>13</v>
       </c>
@@ -2547,6 +2679,18 @@
       <c r="H11" s="1">
         <v>43072.359664351854</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N11" t="s">
         <v>14</v>
       </c>
@@ -2597,6 +2741,18 @@
       <c r="H12" s="1">
         <v>43072.359837962962</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2.5008160250195033E-4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2.8410411303525507E-5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.21134306411795478</v>
+      </c>
       <c r="N12" t="s">
         <v>15</v>
       </c>
@@ -2647,6 +2803,18 @@
       <c r="H13" s="1">
         <v>43072.36241898148</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N13" t="s">
         <v>16</v>
       </c>
@@ -2697,6 +2865,18 @@
       <c r="H14" s="1">
         <v>43072.373761574076</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.6592377480151299E-4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>3.0623098695059525E-5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>4.9145212164809209</v>
+      </c>
       <c r="N14" t="s">
         <v>18</v>
       </c>
@@ -2747,6 +2927,18 @@
       <c r="H15" s="1">
         <v>43072.359837962962</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N15" t="s">
         <v>19</v>
       </c>
@@ -2797,6 +2989,18 @@
       <c r="H16" s="1">
         <v>43072.371168981481</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N16" t="s">
         <v>20</v>
       </c>
@@ -2847,6 +3051,18 @@
       <c r="H17" s="1">
         <v>43072.359409722223</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N17" t="s">
         <v>22</v>
       </c>
@@ -2897,6 +3113,18 @@
       <c r="H18" s="1">
         <v>43072.379062499997</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.0747764810048466E-4</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>1.0624712639639711E-4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.4893368460820966</v>
+      </c>
       <c r="N18" t="s">
         <v>23</v>
       </c>
@@ -2947,6 +3175,18 @@
       <c r="H19" s="1">
         <v>43072.360636574071</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N19" t="s">
         <v>25</v>
       </c>
@@ -2997,6 +3237,18 @@
       <c r="H20" s="1">
         <v>43072.368460648147</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>3.4159962503110819E-5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9.0396908497325512E-5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.10947782492701208</v>
+      </c>
       <c r="N20" t="s">
         <v>26</v>
       </c>
@@ -3047,6 +3299,18 @@
       <c r="H21" s="1">
         <v>43072.359548611108</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N21" t="s">
         <v>27</v>
       </c>
@@ -3097,6 +3361,18 @@
       <c r="H22" s="1">
         <v>43072.360636574071</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N22" t="s">
         <v>29</v>
       </c>
@@ -3144,6 +3420,18 @@
       <c r="H23" s="1">
         <v>43072.360636574071</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N23" t="s">
         <v>30</v>
       </c>
@@ -3191,6 +3479,18 @@
       <c r="H24" s="1">
         <v>43072.359664351854</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N24" t="s">
         <v>31</v>
       </c>
@@ -3241,6 +3541,18 @@
       <c r="H25" s="1">
         <v>43072.36178240741</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>3.4221198990280755E-4</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>3.0678193089528349E-4</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>1.4525432159840648</v>
+      </c>
       <c r="N25" t="s">
         <v>33</v>
       </c>
@@ -3291,6 +3603,18 @@
       <c r="H26" s="1">
         <v>43072.36451388889</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.7360719198222796E-5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>2.3454243098797178E-5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>2.3958686899389932</v>
+      </c>
       <c r="N26" t="s">
         <v>34</v>
       </c>
@@ -3341,6 +3665,18 @@
       <c r="H27" s="1">
         <v>43072.368067129632</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>4.7870477004607892E-6</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>5.1564733993814116E-6</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>6.2125380330550115</v>
+      </c>
       <c r="N27" t="s">
         <v>36</v>
       </c>
@@ -3391,6 +3727,18 @@
       <c r="H28" s="1">
         <v>43072.359594907408</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N28" t="s">
         <v>37</v>
       </c>
@@ -3441,6 +3789,18 @@
       <c r="H29" s="1">
         <v>43072.365312499998</v>
       </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1.8472029800875589E-5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>4.1956385899766246E-5</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>1.6423800939810462</v>
+      </c>
       <c r="N29" t="s">
         <v>38</v>
       </c>
@@ -3491,6 +3851,18 @@
       <c r="H30" s="1">
         <v>43072.364687499998</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>4.1081085981886645E-6</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>9.9876161200995739E-5</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0.8944700543070212</v>
+      </c>
       <c r="N30" t="s">
         <v>39</v>
       </c>
@@ -3538,6 +3910,18 @@
       <c r="H31" s="1">
         <v>43072.36859953704</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1.9238892896566995E-5</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1.2577595899898597E-4</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>1.698213341620999</v>
+      </c>
       <c r="N31" t="s">
         <v>40</v>
       </c>
@@ -3588,6 +3972,18 @@
       <c r="H32" s="1">
         <v>43072.377847222226</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>5.7780235600546348E-5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>4.2805646195631653E-5</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>2.2396908617359941</v>
+      </c>
       <c r="N32" t="s">
         <v>42</v>
       </c>
@@ -3635,6 +4031,18 @@
       <c r="H33" s="1">
         <v>43072.362384259257</v>
       </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N33" t="s">
         <v>43</v>
       </c>
@@ -3685,6 +4093,18 @@
       <c r="H34" s="1">
         <v>43072.370717592596</v>
       </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N34" t="s">
         <v>44</v>
       </c>
@@ -3735,6 +4155,18 @@
       <c r="H35" s="1">
         <v>43072.361851851849</v>
       </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N35" t="s">
         <v>45</v>
       </c>
@@ -3785,6 +4217,18 @@
       <c r="H36" s="1">
         <v>43072.360011574077</v>
       </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N36" t="s">
         <v>46</v>
       </c>
@@ -3835,6 +4279,18 @@
       <c r="H37" s="1">
         <v>43072.361921296295</v>
       </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N37" t="s">
         <v>47</v>
       </c>
@@ -3885,6 +4341,18 @@
       <c r="H38" s="1">
         <v>43072.368032407408</v>
       </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N38" t="s">
         <v>49</v>
       </c>
@@ -3935,6 +4403,18 @@
       <c r="H39" s="1">
         <v>43072.362696759257</v>
       </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N39" t="s">
         <v>50</v>
       </c>
@@ -3985,6 +4465,18 @@
       <c r="H40" s="1">
         <v>43072.361504629633</v>
       </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N40" t="s">
         <v>51</v>
       </c>
@@ -4035,6 +4527,18 @@
       <c r="H41" s="1">
         <v>43072.365416666667</v>
       </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1.0937034589630912E-4</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>2.1177105999470314E-4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>3.6203672132589872</v>
+      </c>
       <c r="N41" t="s">
         <v>52</v>
       </c>
@@ -4085,6 +4589,18 @@
       <c r="H42" s="1">
         <v>43072.373761574076</v>
       </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>3.7662674202465496E-5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>1.0676919949759167E-4</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>1.5474815085819955</v>
+      </c>
       <c r="N42" t="s">
         <v>53</v>
       </c>
@@ -4135,6 +4651,18 @@
       <c r="H43" s="1">
         <v>43072.360011574077</v>
       </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N43" t="s">
         <v>54</v>
       </c>
@@ -4185,6 +4713,18 @@
       <c r="H44" s="1">
         <v>43072.36923611111</v>
       </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N44" t="s">
         <v>56</v>
       </c>
@@ -4232,6 +4772,18 @@
       <c r="H45" s="1">
         <v>43072.364525462966</v>
       </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N45" t="s">
         <v>57</v>
       </c>
@@ -4279,6 +4831,18 @@
       <c r="H46" s="1">
         <v>43072.370648148149</v>
       </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>3.3963940992975949E-6</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>2.9175032494777042E-5</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>4.1407794344349895</v>
+      </c>
       <c r="N46" t="s">
         <v>58</v>
       </c>
@@ -4329,6 +4893,18 @@
       <c r="H47" s="1">
         <v>43072.364699074074</v>
       </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1.5625919196793348E-5</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>4.2045543402480234E-5</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>1.9073835085440578</v>
+      </c>
       <c r="N47" t="s">
         <v>59</v>
       </c>
@@ -4379,6 +4955,18 @@
       <c r="H48" s="1">
         <v>43072.373935185184</v>
       </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1.1167813710244445E-4</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>9.4961012798933098E-5</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>5.5102054456650649</v>
+      </c>
       <c r="N48" t="s">
         <v>61</v>
       </c>
@@ -4429,6 +5017,18 @@
       <c r="H49" s="1">
         <v>43072.36577546296</v>
       </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N49" t="s">
         <v>62</v>
       </c>
@@ -4479,6 +5079,18 @@
       <c r="H50" s="1">
         <v>43072.360775462963</v>
       </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>2.0080588190296567E-4</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>8.8794736704755906E-5</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>1.7417558009939285</v>
+      </c>
       <c r="N50" t="s">
         <v>64</v>
       </c>
@@ -4529,6 +5141,18 @@
       <c r="H51" s="1">
         <v>43072.379571759258</v>
       </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N51" t="s">
         <v>65</v>
       </c>
@@ -4576,6 +5200,18 @@
       <c r="H52" s="1">
         <v>43072.368472222224</v>
       </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N52" t="s">
         <v>66</v>
       </c>
@@ -4626,6 +5262,18 @@
       <c r="H53" s="1">
         <v>43072.368067129632</v>
       </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>2.281768070133694E-5</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>4.7930913801508268E-5</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>2.671774963699022</v>
+      </c>
       <c r="N53" t="s">
         <v>68</v>
       </c>
@@ -4676,6 +5324,18 @@
       <c r="H54" s="1">
         <v>43072.359548611108</v>
       </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N54" t="s">
         <v>69</v>
       </c>
@@ -4726,6 +5386,18 @@
       <c r="H55" s="1">
         <v>43072.367476851854</v>
       </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N55" t="s">
         <v>70</v>
       </c>
@@ -4773,6 +5445,18 @@
       <c r="H56" s="1">
         <v>43072.361921296295</v>
       </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N56" t="s">
         <v>71</v>
       </c>
@@ -4820,6 +5504,18 @@
       <c r="H57" s="1">
         <v>43072.363182870373</v>
       </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N57" t="s">
         <v>72</v>
       </c>
@@ -4870,6 +5566,18 @@
       <c r="H58" s="1">
         <v>43072.364907407406</v>
       </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>5.9772357900556017E-5</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>3.1941372489541209E-4</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>2.0727920214130791</v>
+      </c>
       <c r="N58" t="s">
         <v>73</v>
       </c>
@@ -4920,6 +5628,18 @@
       <c r="H59" s="1">
         <v>43072.368101851855</v>
       </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>4.408246979892283E-5</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>1.0476019603800069E-5</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>0.29092588418700416</v>
+      </c>
       <c r="N59" t="s">
         <v>74</v>
       </c>
@@ -4970,6 +5690,18 @@
       <c r="H60" s="1">
         <v>43072.365416666667</v>
       </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>1.9545074302129706E-5</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>8.7321034200726899E-5</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>1.6860140722940287</v>
+      </c>
       <c r="N60" t="s">
         <v>76</v>
       </c>
@@ -5020,6 +5752,18 @@
       <c r="H61" s="1">
         <v>43072.375844907408</v>
       </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N61" t="s">
         <v>78</v>
       </c>
@@ -5070,6 +5814,18 @@
       <c r="H62" s="1">
         <v>43072.365381944444</v>
       </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>3.5966021300737339E-5</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>8.3840002893964538E-5</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>3.8585309623639432</v>
+      </c>
       <c r="N62" t="s">
         <v>79</v>
       </c>
@@ -5120,6 +5876,18 @@
       <c r="H63" s="1">
         <v>43072.379756944443</v>
       </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>4.3771160399330711E-5</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>4.7390524997581451E-5</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>0.91319790267800727</v>
+      </c>
       <c r="N63" t="s">
         <v>81</v>
       </c>
@@ -5170,6 +5938,18 @@
       <c r="H64" s="1">
         <v>43072.364733796298</v>
       </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>3.2646635297339799E-5</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>6.7471143097463937E-5</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>0.79649958920799691</v>
+      </c>
       <c r="N64" t="s">
         <v>83</v>
       </c>
@@ -5217,6 +5997,18 @@
       <c r="H65" s="1">
         <v>43072.360810185186</v>
       </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N65" t="s">
         <v>84</v>
       </c>
@@ -5264,6 +6056,18 @@
       <c r="H66" s="1">
         <v>43072.365428240744</v>
       </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N66" t="s">
         <v>85</v>
       </c>
@@ -5314,6 +6118,18 @@
       <c r="H67" s="1">
         <v>43072.368032407408</v>
       </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="3">ABS(E67-R67)</f>
+        <v>8.2824920042412487E-6</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="4">ABS(F67-S67)</f>
+        <v>1.4682527829990022E-4</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="2"/>
+        <v>4.7933749835659683</v>
+      </c>
       <c r="N67" t="s">
         <v>87</v>
       </c>
@@ -5364,6 +6180,18 @@
       <c r="H68" s="1">
         <v>43072.364699074074</v>
       </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L131" si="5">ABS(G68-T68)</f>
+        <v>0</v>
+      </c>
       <c r="N68" t="s">
         <v>89</v>
       </c>
@@ -5414,6 +6242,18 @@
       <c r="H69" s="1">
         <v>43072.365069444444</v>
       </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>1.2185312650103697E-4</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>4.1058745770072846E-4</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="5"/>
+        <v>1.8909842775090056</v>
+      </c>
       <c r="N69" t="s">
         <v>90</v>
       </c>
@@ -5464,6 +6304,18 @@
       <c r="H70" s="1">
         <v>43072.36923611111</v>
       </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>2.9405909394597529E-5</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>1.3314571699396538E-4</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="5"/>
+        <v>0.94823471621691624</v>
+      </c>
       <c r="N70" t="s">
         <v>91</v>
       </c>
@@ -5511,6 +6363,18 @@
       <c r="H71" s="1">
         <v>43072.359837962962</v>
       </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N71" t="s">
         <v>92</v>
       </c>
@@ -5561,6 +6425,18 @@
       <c r="H72" s="1">
         <v>43072.377696759257</v>
       </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>3.9750278993722077E-5</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>2.2042899097129975E-5</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="5"/>
+        <v>2.0551889984050149</v>
+      </c>
       <c r="N72" t="s">
         <v>93</v>
       </c>
@@ -5611,6 +6487,18 @@
       <c r="H73" s="1">
         <v>43072.359976851854</v>
       </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N73" t="s">
         <v>95</v>
       </c>
@@ -5661,6 +6549,18 @@
       <c r="H74" s="1">
         <v>43072.359305555554</v>
       </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N74" t="s">
         <v>97</v>
       </c>
@@ -5711,6 +6611,18 @@
       <c r="H75" s="1">
         <v>43072.360775462963</v>
       </c>
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N75" t="s">
         <v>99</v>
       </c>
@@ -5761,6 +6673,18 @@
       <c r="H76" s="1">
         <v>43072.364699074074</v>
       </c>
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N76" t="s">
         <v>100</v>
       </c>
@@ -5811,6 +6735,18 @@
       <c r="H77" s="1">
         <v>43072.36074074074</v>
       </c>
+      <c r="J77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N77" t="s">
         <v>101</v>
       </c>
@@ -5861,6 +6797,18 @@
       <c r="H78" s="1">
         <v>43072.360810185186</v>
       </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N78" t="s">
         <v>102</v>
       </c>
@@ -5911,6 +6859,18 @@
       <c r="H79" s="1">
         <v>43072.359942129631</v>
       </c>
+      <c r="J79">
+        <f t="shared" si="3"/>
+        <v>3.1190559840155174E-4</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>2.573916664942999E-4</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="5"/>
+        <v>1.6069997283360635</v>
+      </c>
       <c r="N79" t="s">
         <v>104</v>
       </c>
@@ -5961,6 +6921,18 @@
       <c r="H80" s="1">
         <v>43072.362870370373</v>
       </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N80" t="s">
         <v>105</v>
       </c>
@@ -6008,6 +6980,18 @@
       <c r="H81" s="1">
         <v>43072.362974537034</v>
       </c>
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N81" t="s">
         <v>106</v>
       </c>
@@ -6055,6 +7039,18 @@
       <c r="H82" s="1">
         <v>43072.360983796294</v>
       </c>
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N82" t="s">
         <v>107</v>
       </c>
@@ -6105,6 +7101,18 @@
       <c r="H83" s="1">
         <v>43072.359143518515</v>
       </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N83" t="s">
         <v>109</v>
       </c>
@@ -6155,6 +7163,18 @@
       <c r="H84" s="1">
         <v>43072.364733796298</v>
       </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>2.1297873395553779E-5</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>4.4339260199421915E-5</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="5"/>
+        <v>4.3872676014939316</v>
+      </c>
       <c r="N84" t="s">
         <v>110</v>
       </c>
@@ -6205,6 +7225,18 @@
       <c r="H85" s="1">
         <v>43072.378923611112</v>
       </c>
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N85" t="s">
         <v>111</v>
       </c>
@@ -6255,6 +7287,18 @@
       <c r="H86" s="1">
         <v>43072.377662037034</v>
       </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>9.6150388003479748E-5</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>4.7331112398296682E-5</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="5"/>
+        <v>1.4398466756969128</v>
+      </c>
       <c r="N86" t="s">
         <v>112</v>
       </c>
@@ -6305,6 +7349,18 @@
       <c r="H87" s="1">
         <v>43072.371342592596</v>
       </c>
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>6.9353463061361253E-6</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>1.331222519951325E-5</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="5"/>
+        <v>1.9674366777240948</v>
+      </c>
       <c r="N87" t="s">
         <v>113</v>
       </c>
@@ -6355,6 +7411,18 @@
       <c r="H88" s="1">
         <v>43072.365347222221</v>
       </c>
+      <c r="J88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N88" t="s">
         <v>115</v>
       </c>
@@ -6405,6 +7473,18 @@
       <c r="H89" s="1">
         <v>43072.360844907409</v>
       </c>
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N89" t="s">
         <v>116</v>
       </c>
@@ -6455,6 +7535,18 @@
       <c r="H90" s="1">
         <v>43072.370613425926</v>
       </c>
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N90" t="s">
         <v>117</v>
       </c>
@@ -6505,6 +7597,18 @@
       <c r="H91" s="1">
         <v>43072.364768518521</v>
       </c>
+      <c r="J91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N91" t="s">
         <v>119</v>
       </c>
@@ -6555,6 +7659,18 @@
       <c r="H92" s="1">
         <v>43072.364768518521</v>
       </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N92" t="s">
         <v>121</v>
       </c>
@@ -6605,6 +7721,18 @@
       <c r="H93" s="1">
         <v>43072.362974537034</v>
       </c>
+      <c r="J93">
+        <f t="shared" si="3"/>
+        <v>1.0956224259928149E-4</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="4"/>
+        <v>2.0662735401799637E-5</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="5"/>
+        <v>0.8287764603510368</v>
+      </c>
       <c r="N93" t="s">
         <v>122</v>
       </c>
@@ -6652,6 +7780,18 @@
       <c r="H94" s="1">
         <v>43072.375381944446</v>
       </c>
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N94" t="s">
         <v>123</v>
       </c>
@@ -6702,6 +7842,18 @@
       <c r="H95" s="1">
         <v>43072.36074074074</v>
       </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N95" t="s">
         <v>124</v>
       </c>
@@ -6749,6 +7901,18 @@
       <c r="H96" s="1">
         <v>43072.360567129632</v>
       </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N96" t="s">
         <v>125</v>
       </c>
@@ -6796,6 +7960,18 @@
       <c r="H97" s="1">
         <v>43072.362349537034</v>
       </c>
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N97" t="s">
         <v>126</v>
       </c>
@@ -6846,6 +8022,18 @@
       <c r="H98" s="1">
         <v>43072.360532407409</v>
       </c>
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N98" t="s">
         <v>127</v>
       </c>
@@ -6896,6 +8084,18 @@
       <c r="H99" s="1">
         <v>43072.359444444446</v>
       </c>
+      <c r="J99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N99" t="s">
         <v>129</v>
       </c>
@@ -6946,6 +8146,18 @@
       <c r="H100" s="1">
         <v>43072.377187500002</v>
       </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N100" t="s">
         <v>131</v>
       </c>
@@ -6993,6 +8205,18 @@
       <c r="H101" s="1">
         <v>43072.361886574072</v>
       </c>
+      <c r="J101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N101" t="s">
         <v>132</v>
       </c>
@@ -7043,6 +8267,18 @@
       <c r="H102" s="1">
         <v>43072.364803240744</v>
       </c>
+      <c r="J102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N102" t="s">
         <v>134</v>
       </c>
@@ -7093,6 +8329,18 @@
       <c r="H103" s="1">
         <v>43072.365416666667</v>
       </c>
+      <c r="J103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N103" t="s">
         <v>135</v>
       </c>
@@ -7143,6 +8391,18 @@
       <c r="H104" s="1">
         <v>43072.370682870373</v>
       </c>
+      <c r="J104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N104" t="s">
         <v>136</v>
       </c>
@@ -7193,6 +8453,18 @@
       <c r="H105" s="1">
         <v>43072.360844907409</v>
       </c>
+      <c r="J105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N105" t="s">
         <v>137</v>
       </c>
@@ -7243,6 +8515,18 @@
       <c r="H106" s="1">
         <v>43072.37358796296</v>
       </c>
+      <c r="J106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N106" t="s">
         <v>139</v>
       </c>
@@ -7293,6 +8577,18 @@
       <c r="H107" s="1">
         <v>43072.364733796298</v>
       </c>
+      <c r="J107">
+        <f t="shared" si="3"/>
+        <v>1.8195887093952479E-5</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="4"/>
+        <v>4.150407280434365E-5</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="5"/>
+        <v>2.75289980878199</v>
+      </c>
       <c r="N107" t="s">
         <v>141</v>
       </c>
@@ -7340,6 +8636,18 @@
       <c r="H108" s="1">
         <v>43072.377754629626</v>
       </c>
+      <c r="J108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N108" t="s">
         <v>142</v>
       </c>
@@ -7390,6 +8698,18 @@
       <c r="H109" s="1">
         <v>43072.377939814818</v>
       </c>
+      <c r="J109">
+        <f t="shared" si="3"/>
+        <v>1.1439504459787031E-4</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="4"/>
+        <v>4.0651005299707776E-5</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="5"/>
+        <v>0.14987154684899906</v>
+      </c>
       <c r="N109" t="s">
         <v>143</v>
       </c>
@@ -7440,6 +8760,18 @@
       <c r="H110" s="1">
         <v>43072.362523148149</v>
       </c>
+      <c r="J110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N110" t="s">
         <v>144</v>
       </c>
@@ -7490,6 +8822,18 @@
       <c r="H111" s="1">
         <v>43072.368206018517</v>
       </c>
+      <c r="J111">
+        <f t="shared" si="3"/>
+        <v>3.1705700102691026E-5</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="4"/>
+        <v>2.5630778330310022E-4</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="5"/>
+        <v>0.29977928884693483</v>
+      </c>
       <c r="N111" t="s">
         <v>145</v>
       </c>
@@ -7540,6 +8884,18 @@
       <c r="H112" s="1">
         <v>43072.361678240741</v>
       </c>
+      <c r="J112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N112" t="s">
         <v>146</v>
       </c>
@@ -7587,6 +8943,18 @@
       <c r="H113" s="1">
         <v>43072.370752314811</v>
       </c>
+      <c r="J113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N113" t="s">
         <v>147</v>
       </c>
@@ -7637,6 +9005,18 @@
       <c r="H114" s="1">
         <v>43072.364629629628</v>
       </c>
+      <c r="J114">
+        <f t="shared" si="3"/>
+        <v>8.4932884973909495E-6</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="4"/>
+        <v>9.3194639198657114E-5</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="5"/>
+        <v>2.2341474334290297</v>
+      </c>
       <c r="N114" t="s">
         <v>148</v>
       </c>
@@ -7684,6 +9064,18 @@
       <c r="H115" s="1">
         <v>43072.359872685185</v>
       </c>
+      <c r="J115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N115" t="s">
         <v>149</v>
       </c>
@@ -7734,6 +9126,18 @@
       <c r="H116" s="1">
         <v>43072.359664351854</v>
       </c>
+      <c r="J116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N116" t="s">
         <v>150</v>
       </c>
@@ -7784,6 +9188,18 @@
       <c r="H117" s="1">
         <v>43072.361851851849</v>
       </c>
+      <c r="J117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N117" t="s">
         <v>152</v>
       </c>
@@ -7834,6 +9250,18 @@
       <c r="H118" s="1">
         <v>43072.360879629632</v>
       </c>
+      <c r="J118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N118" t="s">
         <v>153</v>
       </c>
@@ -7884,6 +9312,18 @@
       <c r="H119" s="1">
         <v>43072.361851851849</v>
       </c>
+      <c r="J119">
+        <f t="shared" si="3"/>
+        <v>1.2426180200009185E-4</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="4"/>
+        <v>7.7889220001736703E-5</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="5"/>
+        <v>0.42313713477994952</v>
+      </c>
       <c r="N119" t="s">
         <v>154</v>
       </c>
@@ -7934,6 +9374,18 @@
       <c r="H120" s="1">
         <v>43072.378078703703</v>
       </c>
+      <c r="J120">
+        <f t="shared" si="3"/>
+        <v>1.9288173389497842E-4</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="4"/>
+        <v>7.8226809904435868E-5</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="5"/>
+        <v>1.552872511802093</v>
+      </c>
       <c r="N120" t="s">
         <v>155</v>
       </c>
@@ -7984,6 +9436,18 @@
       <c r="H121" s="1">
         <v>43072.378923611112</v>
       </c>
+      <c r="J121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N121" t="s">
         <v>156</v>
       </c>
@@ -8034,6 +9498,18 @@
       <c r="H122" s="1">
         <v>43072.360462962963</v>
       </c>
+      <c r="J122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N122" t="s">
         <v>158</v>
       </c>
@@ -8084,6 +9560,18 @@
       <c r="H123" s="1">
         <v>43072.360879629632</v>
       </c>
+      <c r="J123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N123" t="s">
         <v>159</v>
       </c>
@@ -8134,6 +9622,18 @@
       <c r="H124" s="1">
         <v>43072.365243055552</v>
       </c>
+      <c r="J124">
+        <f t="shared" si="3"/>
+        <v>7.2959456005605716E-5</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="4"/>
+        <v>1.7647429473299781E-7</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="5"/>
+        <v>1.9275484318570761</v>
+      </c>
       <c r="N124" t="s">
         <v>160</v>
       </c>
@@ -8181,6 +9681,18 @@
       <c r="H125" s="1">
         <v>43072.365844907406</v>
       </c>
+      <c r="J125">
+        <f t="shared" si="3"/>
+        <v>8.243040420552461E-5</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="4"/>
+        <v>1.4331516959487089E-4</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="5"/>
+        <v>3.6372833019549944</v>
+      </c>
       <c r="N125" t="s">
         <v>161</v>
       </c>
@@ -8231,6 +9743,18 @@
       <c r="H126" s="1">
         <v>43072.36451388889</v>
       </c>
+      <c r="J126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N126" t="s">
         <v>162</v>
       </c>
@@ -8281,6 +9805,18 @@
       <c r="H127" s="1">
         <v>43072.370682870373</v>
       </c>
+      <c r="J127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N127" t="s">
         <v>163</v>
       </c>
@@ -8331,6 +9867,18 @@
       <c r="H128" s="1">
         <v>43072.373414351852</v>
       </c>
+      <c r="J128">
+        <f t="shared" si="3"/>
+        <v>1.9050126609698737E-4</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="4"/>
+        <v>4.2837816700114217E-5</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="5"/>
+        <v>0.73953823220699633</v>
+      </c>
       <c r="N128" t="s">
         <v>165</v>
       </c>
@@ -8381,6 +9929,18 @@
       <c r="H129" s="1">
         <v>43072.377696759257</v>
       </c>
+      <c r="J129">
+        <f t="shared" si="3"/>
+        <v>2.1684407399646943E-4</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="4"/>
+        <v>2.841527805017563E-4</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="5"/>
+        <v>0.64168101887401008</v>
+      </c>
       <c r="N129" t="s">
         <v>166</v>
       </c>
@@ -8431,6 +9991,18 @@
       <c r="H130" s="1">
         <v>43072.365381944444</v>
       </c>
+      <c r="J130">
+        <f t="shared" si="3"/>
+        <v>7.0341538702223261E-5</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="4"/>
+        <v>4.4916425501639878E-5</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="5"/>
+        <v>3.0286525465759269</v>
+      </c>
       <c r="N130" t="s">
         <v>167</v>
       </c>
@@ -8481,6 +10053,18 @@
       <c r="H131" s="1">
         <v>43072.365486111114</v>
       </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J194" si="6">ABS(E131-R131)</f>
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K194" si="7">ABS(F131-S131)</f>
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="N131" t="s">
         <v>169</v>
       </c>
@@ -8531,6 +10115,18 @@
       <c r="H132" s="1">
         <v>43072.36178240741</v>
       </c>
+      <c r="J132">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ref="L132:L195" si="8">ABS(G132-T132)</f>
+        <v>0</v>
+      </c>
       <c r="N132" t="s">
         <v>170</v>
       </c>
@@ -8581,6 +10177,18 @@
       <c r="H133" s="1">
         <v>43072.359976851854</v>
       </c>
+      <c r="J133">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N133" t="s">
         <v>171</v>
       </c>
@@ -8631,6 +10239,18 @@
       <c r="H134" s="1">
         <v>43072.359201388892</v>
       </c>
+      <c r="J134">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N134" t="s">
         <v>173</v>
       </c>
@@ -8681,6 +10301,18 @@
       <c r="H135" s="1">
         <v>43072.36859953704</v>
       </c>
+      <c r="J135">
+        <f t="shared" si="6"/>
+        <v>6.6604585299501196E-5</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="7"/>
+        <v>1.3330768450003916E-4</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="8"/>
+        <v>0.11646249453406199</v>
+      </c>
       <c r="N135" t="s">
         <v>174</v>
       </c>
@@ -8728,6 +10360,18 @@
       <c r="H136" s="1">
         <v>43072.369409722225</v>
       </c>
+      <c r="J136">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N136" t="s">
         <v>175</v>
       </c>
@@ -8778,6 +10422,18 @@
       <c r="H137" s="1">
         <v>43072.365486111114</v>
       </c>
+      <c r="J137">
+        <f t="shared" si="6"/>
+        <v>1.164737079761835E-5</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="7"/>
+        <v>5.1767675898872767E-5</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="8"/>
+        <v>2.1103950108680465</v>
+      </c>
       <c r="N137" t="s">
         <v>176</v>
       </c>
@@ -8828,6 +10484,18 @@
       <c r="H138" s="1">
         <v>43072.361608796295</v>
       </c>
+      <c r="J138">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N138" t="s">
         <v>177</v>
       </c>
@@ -8875,6 +10543,18 @@
       <c r="H139" s="1">
         <v>43072.365636574075</v>
       </c>
+      <c r="J139">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N139" t="s">
         <v>178</v>
       </c>
@@ -8925,6 +10605,18 @@
       <c r="H140" s="1">
         <v>43072.359201388892</v>
       </c>
+      <c r="J140">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N140" t="s">
         <v>180</v>
       </c>
@@ -8975,6 +10667,18 @@
       <c r="H141" s="1">
         <v>43072.362164351849</v>
       </c>
+      <c r="J141">
+        <f t="shared" si="6"/>
+        <v>3.947646659696602E-5</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="7"/>
+        <v>7.0788112196851216E-5</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="8"/>
+        <v>0.60549159215395321</v>
+      </c>
       <c r="N141" t="s">
         <v>181</v>
       </c>
@@ -9025,6 +10729,18 @@
       <c r="H142" s="1">
         <v>43072.363217592596</v>
       </c>
+      <c r="J142">
+        <f t="shared" si="6"/>
+        <v>6.0596582997618498E-5</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="7"/>
+        <v>1.726325957989161E-4</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="8"/>
+        <v>0.51964047512296929</v>
+      </c>
       <c r="N142" t="s">
         <v>182</v>
       </c>
@@ -9075,6 +10791,18 @@
       <c r="H143" s="1">
         <v>43072.365590277775</v>
       </c>
+      <c r="J143">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N143" t="s">
         <v>184</v>
       </c>
@@ -9122,6 +10850,18 @@
       <c r="H144" s="1">
         <v>43072.359699074077</v>
       </c>
+      <c r="J144">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N144" t="s">
         <v>185</v>
       </c>
@@ -9172,6 +10912,18 @@
       <c r="H145" s="1">
         <v>43072.362199074072</v>
       </c>
+      <c r="J145">
+        <f t="shared" si="6"/>
+        <v>1.3706163080229317E-4</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="7"/>
+        <v>1.9737283550114171E-4</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="8"/>
+        <v>1.6352941380910124</v>
+      </c>
       <c r="N145" t="s">
         <v>186</v>
       </c>
@@ -9219,6 +10971,18 @@
       <c r="H146" s="1">
         <v>43072.368287037039</v>
       </c>
+      <c r="J146">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N146" t="s">
         <v>187</v>
       </c>
@@ -9269,6 +11033,18 @@
       <c r="H147" s="1">
         <v>43072.36451388889</v>
       </c>
+      <c r="J147">
+        <f t="shared" si="6"/>
+        <v>2.5146232403017166E-5</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="7"/>
+        <v>1.2688940319804942E-4</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="8"/>
+        <v>2.1653722905380164</v>
+      </c>
       <c r="N147" t="s">
         <v>188</v>
       </c>
@@ -9319,6 +11095,18 @@
       <c r="H148" s="1">
         <v>43072.36577546296</v>
       </c>
+      <c r="J148">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N148" t="s">
         <v>189</v>
       </c>
@@ -9369,6 +11157,18 @@
       <c r="H149" s="1">
         <v>43072.359178240738</v>
       </c>
+      <c r="J149">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N149" t="s">
         <v>191</v>
       </c>
@@ -9419,6 +11219,18 @@
       <c r="H150" s="1">
         <v>43072.368333333332</v>
       </c>
+      <c r="J150">
+        <f t="shared" si="6"/>
+        <v>1.7865264270255921E-4</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="7"/>
+        <v>2.7589887490364617E-4</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="8"/>
+        <v>3.0409085323240106</v>
+      </c>
       <c r="N150" t="s">
         <v>192</v>
       </c>
@@ -9469,6 +11281,18 @@
       <c r="H151" s="1">
         <v>43072.365486111114</v>
       </c>
+      <c r="J151">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N151" t="s">
         <v>193</v>
       </c>
@@ -9516,6 +11340,18 @@
       <c r="H152" s="1">
         <v>43072.360462962963</v>
       </c>
+      <c r="J152">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N152" t="s">
         <v>194</v>
       </c>
@@ -9566,6 +11402,18 @@
       <c r="H153" s="1">
         <v>43072.37940972222</v>
       </c>
+      <c r="J153">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N153" t="s">
         <v>195</v>
       </c>
@@ -9616,6 +11464,18 @@
       <c r="H154" s="1">
         <v>43072.360462962963</v>
       </c>
+      <c r="J154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N154" t="s">
         <v>196</v>
       </c>
@@ -9666,6 +11526,18 @@
       <c r="H155" s="1">
         <v>43072.360532407409</v>
       </c>
+      <c r="J155">
+        <f t="shared" si="6"/>
+        <v>4.4776841100713227E-5</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="7"/>
+        <v>1.4999661590309188E-4</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="8"/>
+        <v>2.1995320854898637E-2</v>
+      </c>
       <c r="N155" t="s">
         <v>198</v>
       </c>
@@ -9716,6 +11588,18 @@
       <c r="H156" s="1">
         <v>43072.360532407409</v>
       </c>
+      <c r="J156">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N156" t="s">
         <v>200</v>
       </c>
@@ -9766,6 +11650,18 @@
       <c r="H157" s="1">
         <v>43072.359513888892</v>
       </c>
+      <c r="J157">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N157" t="s">
         <v>202</v>
       </c>
@@ -9816,6 +11712,18 @@
       <c r="H158" s="1">
         <v>43072.359444444446</v>
       </c>
+      <c r="J158">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N158" t="s">
         <v>204</v>
       </c>
@@ -9866,6 +11774,18 @@
       <c r="H159" s="1">
         <v>43072.36859953704</v>
       </c>
+      <c r="J159">
+        <f t="shared" si="6"/>
+        <v>3.8009753396295309E-5</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="7"/>
+        <v>4.8005205201206991E-5</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="8"/>
+        <v>0.1989173720959343</v>
+      </c>
       <c r="N159" t="s">
         <v>205</v>
       </c>
@@ -9916,6 +11836,18 @@
       <c r="H160" s="1">
         <v>43072.36178240741</v>
       </c>
+      <c r="J160">
+        <f t="shared" si="6"/>
+        <v>5.1582379839487658E-4</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="7"/>
+        <v>4.4072051963439662E-6</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="8"/>
+        <v>1.0545287238983292E-2</v>
+      </c>
       <c r="N160" t="s">
         <v>207</v>
       </c>
@@ -9966,6 +11898,18 @@
       <c r="H161" s="1">
         <v>43072.378078703703</v>
       </c>
+      <c r="J161">
+        <f t="shared" si="6"/>
+        <v>3.4355431470345366E-4</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="7"/>
+        <v>1.6471714280186234E-4</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="8"/>
+        <v>1.5408420657039414</v>
+      </c>
       <c r="N161" t="s">
         <v>208</v>
       </c>
@@ -10016,6 +11960,18 @@
       <c r="H162" s="1">
         <v>43072.36209490741</v>
       </c>
+      <c r="J162">
+        <f t="shared" si="6"/>
+        <v>1.1677291959699687E-4</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="7"/>
+        <v>3.9631728100175678E-5</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="8"/>
+        <v>0.14147719979700923</v>
+      </c>
       <c r="N162" t="s">
         <v>209</v>
       </c>
@@ -10066,6 +12022,18 @@
       <c r="H163" s="1">
         <v>43072.377824074072</v>
       </c>
+      <c r="J163">
+        <f t="shared" si="6"/>
+        <v>1.3645298594155975E-5</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="7"/>
+        <v>1.4923248699005853E-5</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="8"/>
+        <v>1.3575639888989599</v>
+      </c>
       <c r="N163" t="s">
         <v>210</v>
       </c>
@@ -10116,6 +12084,18 @@
       <c r="H164" s="1">
         <v>43072.359178240738</v>
       </c>
+      <c r="J164">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N164" t="s">
         <v>212</v>
       </c>
@@ -10166,6 +12146,18 @@
       <c r="H165" s="1">
         <v>43072.359768518516</v>
       </c>
+      <c r="J165">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N165" t="s">
         <v>213</v>
       </c>
@@ -10216,6 +12208,18 @@
       <c r="H166" s="1">
         <v>43072.359768518516</v>
       </c>
+      <c r="J166">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N166" t="s">
         <v>214</v>
       </c>
@@ -10266,6 +12270,18 @@
       <c r="H167" s="1">
         <v>43072.363182870373</v>
       </c>
+      <c r="J167">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N167" t="s">
         <v>215</v>
       </c>
@@ -10316,6 +12332,18 @@
       <c r="H168" s="1">
         <v>43072.368726851855</v>
       </c>
+      <c r="J168">
+        <f t="shared" si="6"/>
+        <v>4.9085636000256727E-5</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="7"/>
+        <v>8.3247958997390015E-5</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="8"/>
+        <v>4.9810979472829331</v>
+      </c>
       <c r="N168" t="s">
         <v>216</v>
       </c>
@@ -10363,6 +12391,18 @@
       <c r="H169" s="1">
         <v>43072.364930555559</v>
       </c>
+      <c r="J169">
+        <f t="shared" si="6"/>
+        <v>2.6036249494154617E-5</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="7"/>
+        <v>5.7136946402636113E-5</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="8"/>
+        <v>2.0085335156379642</v>
+      </c>
       <c r="N169" t="s">
         <v>217</v>
       </c>
@@ -10410,6 +12450,18 @@
       <c r="H170" s="1">
         <v>43072.359872685185</v>
       </c>
+      <c r="J170">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N170" t="s">
         <v>218</v>
       </c>
@@ -10457,6 +12509,18 @@
       <c r="H171" s="1">
         <v>43072.364999999998</v>
       </c>
+      <c r="J171">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N171" t="s">
         <v>219</v>
       </c>
@@ -10507,6 +12571,18 @@
       <c r="H172" s="1">
         <v>43072.368101851855</v>
       </c>
+      <c r="J172">
+        <f t="shared" si="6"/>
+        <v>1.2218155260512731E-4</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="7"/>
+        <v>9.3865868706188849E-5</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="8"/>
+        <v>2.5743556290270817</v>
+      </c>
       <c r="N172" t="s">
         <v>220</v>
       </c>
@@ -10554,6 +12630,18 @@
       <c r="H173" s="1">
         <v>43072.36791666667</v>
       </c>
+      <c r="J173">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N173" t="s">
         <v>221</v>
       </c>
@@ -10604,6 +12692,18 @@
       <c r="H174" s="1">
         <v>43072.364999999998</v>
       </c>
+      <c r="J174">
+        <f t="shared" si="6"/>
+        <v>1.1636822549832004E-4</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="7"/>
+        <v>1.518437630210201E-5</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="8"/>
+        <v>0.73459707091899418</v>
+      </c>
       <c r="N174" t="s">
         <v>222</v>
       </c>
@@ -10654,6 +12754,18 @@
       <c r="H175" s="1">
         <v>43072.364722222221</v>
       </c>
+      <c r="J175">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N175" t="s">
         <v>224</v>
       </c>
@@ -10704,6 +12816,18 @@
       <c r="H176" s="1">
         <v>43072.359178240738</v>
       </c>
+      <c r="J176">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N176" t="s">
         <v>225</v>
       </c>
@@ -10754,6 +12878,18 @@
       <c r="H177" s="1">
         <v>43072.371168981481</v>
       </c>
+      <c r="J177">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N177" t="s">
         <v>226</v>
       </c>
@@ -10801,6 +12937,18 @@
       <c r="H178" s="1">
         <v>43072.361504629633</v>
       </c>
+      <c r="J178">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N178" t="s">
         <v>227</v>
       </c>
@@ -10851,6 +12999,18 @@
       <c r="H179" s="1">
         <v>43072.365208333336</v>
       </c>
+      <c r="J179">
+        <f t="shared" si="6"/>
+        <v>1.6390743199679036E-4</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="7"/>
+        <v>1.5657842719463133E-4</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="8"/>
+        <v>1.7358799156010036</v>
+      </c>
       <c r="N179" t="s">
         <v>228</v>
       </c>
@@ -10901,6 +13061,18 @@
       <c r="H180" s="1">
         <v>43072.365381944444</v>
       </c>
+      <c r="J180">
+        <f t="shared" si="6"/>
+        <v>8.9937059904343641E-5</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="7"/>
+        <v>6.0027193001133128E-5</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="8"/>
+        <v>0.32578914463204001</v>
+      </c>
       <c r="N180" t="s">
         <v>229</v>
       </c>
@@ -10951,6 +13123,18 @@
       <c r="H181" s="1">
         <v>43072.361851851849</v>
       </c>
+      <c r="J181">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N181" t="s">
         <v>230</v>
       </c>
@@ -11001,6 +13185,18 @@
       <c r="H182" s="1">
         <v>43072.359872685185</v>
       </c>
+      <c r="J182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N182" t="s">
         <v>231</v>
       </c>
@@ -11051,6 +13247,18 @@
       <c r="H183" s="1">
         <v>43072.362199074072</v>
       </c>
+      <c r="J183">
+        <f t="shared" si="6"/>
+        <v>6.6286714101693178E-5</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="7"/>
+        <v>7.6273854297426169E-5</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="8"/>
+        <v>4.0766860406830574</v>
+      </c>
       <c r="N183" t="s">
         <v>232</v>
       </c>
@@ -11098,6 +13306,18 @@
       <c r="H184" s="1">
         <v>43072.362025462964</v>
       </c>
+      <c r="J184">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N184" t="s">
         <v>233</v>
       </c>
@@ -11148,6 +13368,18 @@
       <c r="H185" s="1">
         <v>43072.36923611111</v>
       </c>
+      <c r="J185">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N185" t="s">
         <v>234</v>
       </c>
@@ -11195,6 +13427,18 @@
       <c r="H186" s="1">
         <v>43072.360601851855</v>
       </c>
+      <c r="J186">
+        <f t="shared" si="6"/>
+        <v>1.4908209369934866E-4</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="7"/>
+        <v>1.9240273039855538E-4</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="8"/>
+        <v>0.14448867545593203</v>
+      </c>
       <c r="N186" t="s">
         <v>235</v>
       </c>
@@ -11245,6 +13489,18 @@
       <c r="H187" s="1">
         <v>43072.360046296293</v>
       </c>
+      <c r="J187">
+        <f t="shared" si="6"/>
+        <v>3.1871245109726942E-4</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="7"/>
+        <v>7.3099053020087013E-4</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="8"/>
+        <v>0.10879440734709078</v>
+      </c>
       <c r="N187" t="s">
         <v>236</v>
       </c>
@@ -11295,6 +13551,18 @@
       <c r="H188" s="1">
         <v>43072.371203703704</v>
       </c>
+      <c r="J188">
+        <f t="shared" si="6"/>
+        <v>4.2406155799312728E-5</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="7"/>
+        <v>1.2265183610082886E-4</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="8"/>
+        <v>1.8077338202890587</v>
+      </c>
       <c r="N188" t="s">
         <v>237</v>
       </c>
@@ -11345,6 +13613,18 @@
       <c r="H189" s="1">
         <v>43072.373761574076</v>
       </c>
+      <c r="J189">
+        <f t="shared" si="6"/>
+        <v>3.0993802419487793E-4</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="7"/>
+        <v>1.8396502739648213E-4</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="8"/>
+        <v>0.97595534214201507</v>
+      </c>
       <c r="N189" t="s">
         <v>238</v>
       </c>
@@ -11395,6 +13675,18 @@
       <c r="H190" s="1">
         <v>43072.368067129632</v>
       </c>
+      <c r="J190">
+        <f t="shared" si="6"/>
+        <v>1.3279362020313101E-4</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="7"/>
+        <v>1.6188473789924274E-4</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="8"/>
+        <v>0.200661599292971</v>
+      </c>
       <c r="N190" t="s">
         <v>239</v>
       </c>
@@ -11445,6 +13737,18 @@
       <c r="H191" s="1">
         <v>43072.360601851855</v>
       </c>
+      <c r="J191">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N191" t="s">
         <v>241</v>
       </c>
@@ -11495,6 +13799,18 @@
       <c r="H192" s="1">
         <v>43072.365555555552</v>
       </c>
+      <c r="J192">
+        <f t="shared" si="6"/>
+        <v>9.483225209550028E-5</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="7"/>
+        <v>1.7711407402032364E-5</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="8"/>
+        <v>3.5950906114670715</v>
+      </c>
       <c r="N192" t="s">
         <v>243</v>
       </c>
@@ -11545,6 +13861,18 @@
       <c r="H193" s="1">
         <v>43072.365451388891</v>
       </c>
+      <c r="J193">
+        <f t="shared" si="6"/>
+        <v>2.3232106569537336E-4</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="7"/>
+        <v>7.4826094405011645E-5</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="8"/>
+        <v>3.0304125916500197</v>
+      </c>
       <c r="N193" t="s">
         <v>244</v>
       </c>
@@ -11595,6 +13923,18 @@
       <c r="H194" s="1">
         <v>43072.368032407408</v>
       </c>
+      <c r="J194">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N194" t="s">
         <v>246</v>
       </c>
@@ -11645,6 +13985,18 @@
       <c r="H195" s="1">
         <v>43072.359629629631</v>
       </c>
+      <c r="J195">
+        <f t="shared" ref="J195:J258" si="9">ABS(E195-R195)</f>
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <f t="shared" ref="K195:K258" si="10">ABS(F195-S195)</f>
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N195" t="s">
         <v>247</v>
       </c>
@@ -11695,6 +14047,18 @@
       <c r="H196" s="1">
         <v>43072.368692129632</v>
       </c>
+      <c r="J196">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <f t="shared" ref="L196:L259" si="11">ABS(G196-T196)</f>
+        <v>0</v>
+      </c>
       <c r="N196" t="s">
         <v>249</v>
       </c>
@@ -11745,6 +14109,18 @@
       <c r="H197" s="1">
         <v>43072.368379629632</v>
       </c>
+      <c r="J197">
+        <f t="shared" si="9"/>
+        <v>5.0224986999580779E-5</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="10"/>
+        <v>1.8088814002226172E-5</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="11"/>
+        <v>2.2392339253860882</v>
+      </c>
       <c r="N197" t="s">
         <v>250</v>
       </c>
@@ -11795,6 +14171,18 @@
       <c r="H198" s="1">
         <v>43072.361817129633</v>
       </c>
+      <c r="J198">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N198" t="s">
         <v>251</v>
       </c>
@@ -11842,6 +14230,18 @@
       <c r="H199" s="1">
         <v>43072.376608796294</v>
       </c>
+      <c r="J199">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N199" t="s">
         <v>252</v>
       </c>
@@ -11892,6 +14292,18 @@
       <c r="H200" s="1">
         <v>43072.361747685187</v>
       </c>
+      <c r="J200">
+        <f t="shared" si="9"/>
+        <v>2.5642479850063182E-4</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="10"/>
+        <v>1.8457198329713265E-4</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="11"/>
+        <v>5.5799493216779865</v>
+      </c>
       <c r="N200" t="s">
         <v>253</v>
       </c>
@@ -11942,6 +14354,18 @@
       <c r="H201" s="1">
         <v>43072.369340277779</v>
       </c>
+      <c r="J201">
+        <f t="shared" si="9"/>
+        <v>7.2766603054219559E-6</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="10"/>
+        <v>1.7100585900209353E-5</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="11"/>
+        <v>3.599439049345051</v>
+      </c>
       <c r="N201" t="s">
         <v>254</v>
       </c>
@@ -11992,6 +14416,18 @@
       <c r="H202" s="1">
         <v>43072.359513888892</v>
       </c>
+      <c r="J202">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N202" t="s">
         <v>256</v>
       </c>
@@ -12042,6 +14478,18 @@
       <c r="H203" s="1">
         <v>43072.359178240738</v>
       </c>
+      <c r="J203">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N203" t="s">
         <v>258</v>
       </c>
@@ -12089,6 +14537,18 @@
       <c r="H204" s="1">
         <v>43072.360567129632</v>
       </c>
+      <c r="J204">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N204" t="s">
         <v>259</v>
       </c>
@@ -12139,6 +14599,18 @@
       <c r="H205" s="1">
         <v>43072.380011574074</v>
       </c>
+      <c r="J205">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N205" t="s">
         <v>260</v>
       </c>
@@ -12189,6 +14661,18 @@
       <c r="H206" s="1">
         <v>43072.378993055558</v>
       </c>
+      <c r="J206">
+        <f t="shared" si="9"/>
+        <v>1.2152431349932158E-4</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="10"/>
+        <v>1.1092539160273418E-4</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="11"/>
+        <v>2.9485381235599561</v>
+      </c>
       <c r="N206" t="s">
         <v>262</v>
       </c>
@@ -12239,6 +14723,18 @@
       <c r="H207" s="1">
         <v>43072.368460648147</v>
       </c>
+      <c r="J207">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N207" t="s">
         <v>263</v>
       </c>
@@ -12289,6 +14785,18 @@
       <c r="H208" s="1">
         <v>43072.368067129632</v>
       </c>
+      <c r="J208">
+        <f t="shared" si="9"/>
+        <v>3.2275614302079703E-5</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="10"/>
+        <v>7.0786281298751419E-5</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="11"/>
+        <v>2.9990764286600324</v>
+      </c>
       <c r="N208" t="s">
         <v>264</v>
       </c>
@@ -12339,6 +14847,18 @@
       <c r="H209" s="1">
         <v>43072.364756944444</v>
       </c>
+      <c r="J209">
+        <f t="shared" si="9"/>
+        <v>5.2476617399577208E-4</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="10"/>
+        <v>2.3752952202471533E-5</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="11"/>
+        <v>2.1302976551550046</v>
+      </c>
       <c r="N209" t="s">
         <v>265</v>
       </c>
@@ -12386,6 +14906,18 @@
       <c r="H210" s="1">
         <v>43072.367569444446</v>
       </c>
+      <c r="J210">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N210" t="s">
         <v>266</v>
       </c>
@@ -12433,6 +14965,18 @@
       <c r="H211" s="1">
         <v>43072.364618055559</v>
       </c>
+      <c r="J211">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N211" t="s">
         <v>267</v>
       </c>
@@ -12483,6 +15027,18 @@
       <c r="H212" s="1">
         <v>43072.362974537034</v>
       </c>
+      <c r="J212">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N212" t="s">
         <v>268</v>
       </c>
@@ -12530,6 +15086,18 @@
       <c r="H213" s="1">
         <v>43072.364930555559</v>
       </c>
+      <c r="J213">
+        <f t="shared" si="9"/>
+        <v>2.20711801972584E-5</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="10"/>
+        <v>7.1396101894549702E-5</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="11"/>
+        <v>3.8713077728390317</v>
+      </c>
       <c r="N213" t="s">
         <v>269</v>
       </c>
@@ -12580,6 +15148,18 @@
       <c r="H214" s="1">
         <v>43072.364652777775</v>
       </c>
+      <c r="J214">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N214" t="s">
         <v>270</v>
       </c>
@@ -12630,6 +15210,18 @@
       <c r="H215" s="1">
         <v>43072.361817129633</v>
       </c>
+      <c r="J215">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N215" t="s">
         <v>271</v>
       </c>
@@ -12677,6 +15269,18 @@
       <c r="H216" s="1">
         <v>43072.365914351853</v>
       </c>
+      <c r="J216">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N216" t="s">
         <v>272</v>
       </c>
@@ -12727,6 +15331,18 @@
       <c r="H217" s="1">
         <v>43072.359409722223</v>
       </c>
+      <c r="J217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N217" t="s">
         <v>273</v>
       </c>
@@ -12774,6 +15390,18 @@
       <c r="H218" s="1">
         <v>43072.360636574071</v>
       </c>
+      <c r="J218">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N218" t="s">
         <v>274</v>
       </c>
@@ -12821,6 +15449,18 @@
       <c r="H219" s="1">
         <v>43072.364583333336</v>
       </c>
+      <c r="J219">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N219" t="s">
         <v>275</v>
       </c>
@@ -12871,6 +15511,18 @@
       <c r="H220" s="1">
         <v>43072.378009259257</v>
       </c>
+      <c r="J220">
+        <f t="shared" si="9"/>
+        <v>4.7314467003900518E-5</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="10"/>
+        <v>1.9768076199966345E-5</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="11"/>
+        <v>3.2410993863750264</v>
+      </c>
       <c r="N220" t="s">
         <v>276</v>
       </c>
@@ -12921,6 +15573,18 @@
       <c r="H221" s="1">
         <v>43072.360636574071</v>
       </c>
+      <c r="J221">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N221" t="s">
         <v>277</v>
       </c>
@@ -12971,6 +15635,18 @@
       <c r="H222" s="1">
         <v>43072.360046296293</v>
       </c>
+      <c r="J222">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N222" t="s">
         <v>279</v>
       </c>
@@ -13021,6 +15697,18 @@
       <c r="H223" s="1">
         <v>43072.364594907405</v>
       </c>
+      <c r="J223">
+        <f t="shared" si="9"/>
+        <v>8.1533417500168071E-5</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="10"/>
+        <v>1.5159948880238971E-4</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="11"/>
+        <v>5.8639173482609976</v>
+      </c>
       <c r="N223" t="s">
         <v>280</v>
       </c>
@@ -13068,6 +15756,18 @@
       <c r="H224" s="1">
         <v>43072.362939814811</v>
       </c>
+      <c r="J224">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N224" t="s">
         <v>281</v>
       </c>
@@ -13118,6 +15818,18 @@
       <c r="H225" s="1">
         <v>43072.360567129632</v>
       </c>
+      <c r="J225">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N225" t="s">
         <v>283</v>
       </c>
@@ -13168,6 +15880,18 @@
       <c r="H226" s="1">
         <v>43072.359178240738</v>
       </c>
+      <c r="J226">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N226" t="s">
         <v>285</v>
       </c>
@@ -13215,6 +15939,18 @@
       <c r="H227" s="1">
         <v>43072.372013888889</v>
       </c>
+      <c r="J227">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N227" t="s">
         <v>286</v>
       </c>
@@ -13265,6 +16001,18 @@
       <c r="H228" s="1">
         <v>43072.362905092596</v>
       </c>
+      <c r="J228">
+        <f t="shared" si="9"/>
+        <v>1.4765077240497249E-4</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="10"/>
+        <v>1.4293073240168042E-4</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="11"/>
+        <v>0.73692064217300413</v>
+      </c>
       <c r="N228" t="s">
         <v>287</v>
       </c>
@@ -13312,6 +16060,18 @@
       <c r="H229" s="1">
         <v>43072.360532407409</v>
       </c>
+      <c r="J229">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N229" t="s">
         <v>288</v>
       </c>
@@ -13362,6 +16122,18 @@
       <c r="H230" s="1">
         <v>43072.365277777775</v>
       </c>
+      <c r="J230">
+        <f t="shared" si="9"/>
+        <v>1.0127303330165205E-4</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="10"/>
+        <v>9.6011380399829704E-5</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="11"/>
+        <v>1.0875294853880177</v>
+      </c>
       <c r="N230" t="s">
         <v>289</v>
       </c>
@@ -13409,6 +16181,18 @@
       <c r="H231" s="1">
         <v>43072.368287037039</v>
       </c>
+      <c r="J231">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N231" t="s">
         <v>290</v>
       </c>
@@ -13459,6 +16243,18 @@
       <c r="H232" s="1">
         <v>43072.368657407409</v>
       </c>
+      <c r="J232">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N232" t="s">
         <v>291</v>
       </c>
@@ -13509,6 +16305,18 @@
       <c r="H233" s="1">
         <v>43072.362384259257</v>
       </c>
+      <c r="J233">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N233" t="s">
         <v>292</v>
       </c>
@@ -13559,6 +16367,18 @@
       <c r="H234" s="1">
         <v>43072.359699074077</v>
       </c>
+      <c r="J234">
+        <f t="shared" si="9"/>
+        <v>1.0307093370442999E-4</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="10"/>
+        <v>1.3405156494172843E-5</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="11"/>
+        <v>7.0481440138109974E-2</v>
+      </c>
       <c r="N234" t="s">
         <v>293</v>
       </c>
@@ -13609,6 +16429,18 @@
       <c r="H235" s="1">
         <v>43072.365451388891</v>
       </c>
+      <c r="J235">
+        <f t="shared" si="9"/>
+        <v>3.7853315497216045E-5</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="10"/>
+        <v>6.6221198601112974E-5</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="11"/>
+        <v>2.0550098231209404</v>
+      </c>
       <c r="N235" t="s">
         <v>295</v>
       </c>
@@ -13659,6 +16491,18 @@
       <c r="H236" s="1">
         <v>43072.366053240738</v>
       </c>
+      <c r="J236">
+        <f t="shared" si="9"/>
+        <v>6.1894611299351254E-5</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="10"/>
+        <v>4.2437531902805858E-5</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="11"/>
+        <v>1.9924400631359731</v>
+      </c>
       <c r="N236" t="s">
         <v>296</v>
       </c>
@@ -13709,6 +16553,18 @@
       <c r="H237" s="1">
         <v>43072.371238425927</v>
       </c>
+      <c r="J237">
+        <f t="shared" si="9"/>
+        <v>6.9459544704386644E-5</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="10"/>
+        <v>7.0340472895225048E-5</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="11"/>
+        <v>4.1245682109890822</v>
+      </c>
       <c r="N237" t="s">
         <v>297</v>
       </c>
@@ -13759,6 +16615,18 @@
       <c r="H238" s="1">
         <v>43072.360393518517</v>
       </c>
+      <c r="J238">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N238" t="s">
         <v>299</v>
       </c>
@@ -13809,6 +16677,18 @@
       <c r="H239" s="1">
         <v>43072.361678240741</v>
       </c>
+      <c r="J239">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N239" t="s">
         <v>300</v>
       </c>
@@ -13856,6 +16736,18 @@
       <c r="H240" s="1">
         <v>43072.36791666667</v>
       </c>
+      <c r="J240">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N240" t="s">
         <v>301</v>
       </c>
@@ -13906,6 +16798,18 @@
       <c r="H241" s="1">
         <v>43072.368009259262</v>
       </c>
+      <c r="J241">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N241" t="s">
         <v>302</v>
       </c>
@@ -13953,6 +16857,18 @@
       <c r="H242" s="1">
         <v>43072.362349537034</v>
       </c>
+      <c r="J242">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N242" t="s">
         <v>303</v>
       </c>
@@ -14003,6 +16919,18 @@
       <c r="H243" s="1">
         <v>43072.359699074077</v>
       </c>
+      <c r="J243">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N243" t="s">
         <v>304</v>
       </c>
@@ -14053,6 +16981,18 @@
       <c r="H244" s="1">
         <v>43072.36209490741</v>
       </c>
+      <c r="J244">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N244" t="s">
         <v>305</v>
       </c>
@@ -14100,6 +17040,18 @@
       <c r="H245" s="1">
         <v>43072.364652777775</v>
       </c>
+      <c r="J245">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N245" t="s">
         <v>306</v>
       </c>
@@ -14147,6 +17099,18 @@
       <c r="H246" s="1">
         <v>43072.362199074072</v>
       </c>
+      <c r="J246">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N246" t="s">
         <v>307</v>
       </c>
@@ -14197,6 +17161,18 @@
       <c r="H247" s="1">
         <v>43072.364664351851</v>
       </c>
+      <c r="J247">
+        <f t="shared" si="9"/>
+        <v>3.2068958603304054E-5</v>
+      </c>
+      <c r="K247">
+        <f t="shared" si="10"/>
+        <v>1.3686999960071944E-4</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="11"/>
+        <v>2.4791174839959922</v>
+      </c>
       <c r="N247" t="s">
         <v>308</v>
       </c>
@@ -14247,6 +17223,18 @@
       <c r="H248" s="1">
         <v>43072.359236111108</v>
       </c>
+      <c r="J248">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N248" t="s">
         <v>310</v>
       </c>
@@ -14297,6 +17285,18 @@
       <c r="H249" s="1">
         <v>43072.375844907408</v>
       </c>
+      <c r="J249">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N249" t="s">
         <v>311</v>
       </c>
@@ -14347,6 +17347,18 @@
       <c r="H250" s="1">
         <v>43072.359143518515</v>
       </c>
+      <c r="J250">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N250" t="s">
         <v>313</v>
       </c>
@@ -14397,6 +17409,18 @@
       <c r="H251" s="1">
         <v>43072.364930555559</v>
       </c>
+      <c r="J251">
+        <f t="shared" si="9"/>
+        <v>2.6653533595322187E-5</v>
+      </c>
+      <c r="K251">
+        <f t="shared" si="10"/>
+        <v>2.6138857400326287E-5</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="11"/>
+        <v>6.3549929058260659</v>
+      </c>
       <c r="N251" t="s">
         <v>314</v>
       </c>
@@ -14447,6 +17471,18 @@
       <c r="H252" s="1">
         <v>43072.37940972222</v>
       </c>
+      <c r="J252">
+        <f t="shared" si="9"/>
+        <v>4.8217618981993837E-6</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="10"/>
+        <v>1.2430697900356336E-5</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="11"/>
+        <v>2.5414314633479762</v>
+      </c>
       <c r="N252" t="s">
         <v>315</v>
       </c>
@@ -14494,6 +17530,18 @@
       <c r="H253" s="1">
         <v>43072.360393518517</v>
       </c>
+      <c r="J253">
+        <f t="shared" si="9"/>
+        <v>1.5274980599855326E-4</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="10"/>
+        <v>2.7106757369921297E-4</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="11"/>
+        <v>0.78733815530904394</v>
+      </c>
       <c r="N253" t="s">
         <v>316</v>
       </c>
@@ -14544,6 +17592,18 @@
       <c r="H254" s="1">
         <v>43072.360532407409</v>
       </c>
+      <c r="J254">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N254" t="s">
         <v>318</v>
       </c>
@@ -14591,6 +17651,18 @@
       <c r="H255" s="1">
         <v>43072.360393518517</v>
       </c>
+      <c r="J255">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N255" t="s">
         <v>319</v>
       </c>
@@ -14641,6 +17713,18 @@
       <c r="H256" s="1">
         <v>43072.369201388887</v>
       </c>
+      <c r="J256">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N256" t="s">
         <v>320</v>
       </c>
@@ -14691,6 +17775,18 @@
       <c r="H257" s="1">
         <v>43072.362939814811</v>
       </c>
+      <c r="J257">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N257" t="s">
         <v>321</v>
       </c>
@@ -14738,6 +17834,18 @@
       <c r="H258" s="1">
         <v>43072.365243055552</v>
       </c>
+      <c r="J258">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N258" t="s">
         <v>322</v>
       </c>
@@ -14788,6 +17896,18 @@
       <c r="H259" s="1">
         <v>43072.359178240738</v>
       </c>
+      <c r="J259">
+        <f t="shared" ref="J259:J322" si="12">ABS(E259-R259)</f>
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <f t="shared" ref="K259:K322" si="13">ABS(F259-S259)</f>
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="N259" t="s">
         <v>324</v>
       </c>
@@ -14838,6 +17958,18 @@
       <c r="H260" s="1">
         <v>43072.38071759259</v>
       </c>
+      <c r="J260">
+        <f t="shared" si="12"/>
+        <v>2.0776560559454538E-4</v>
+      </c>
+      <c r="K260">
+        <f t="shared" si="13"/>
+        <v>2.6171640020322684E-4</v>
+      </c>
+      <c r="L260">
+        <f t="shared" ref="L260:L323" si="14">ABS(G260-T260)</f>
+        <v>0.63367336309704569</v>
+      </c>
       <c r="N260" t="s">
         <v>325</v>
       </c>
@@ -14888,6 +18020,18 @@
       <c r="H261" s="1">
         <v>43072.371203703704</v>
       </c>
+      <c r="J261">
+        <f t="shared" si="12"/>
+        <v>6.3119227000640876E-5</v>
+      </c>
+      <c r="K261">
+        <f t="shared" si="13"/>
+        <v>1.6065989180447104E-4</v>
+      </c>
+      <c r="L261">
+        <f t="shared" si="14"/>
+        <v>1.3809548267370246</v>
+      </c>
       <c r="N261" t="s">
         <v>327</v>
       </c>
@@ -14935,6 +18079,18 @@
       <c r="H262" s="1">
         <v>43072.368622685186</v>
       </c>
+      <c r="J262">
+        <f t="shared" si="12"/>
+        <v>1.5838582469740459E-4</v>
+      </c>
+      <c r="K262">
+        <f t="shared" si="13"/>
+        <v>3.5468364700363963E-5</v>
+      </c>
+      <c r="L262">
+        <f t="shared" si="14"/>
+        <v>2.9706170241540804</v>
+      </c>
       <c r="N262" t="s">
         <v>328</v>
       </c>
@@ -14982,6 +18138,18 @@
       <c r="H263" s="1">
         <v>43072.359699074077</v>
       </c>
+      <c r="J263">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N263" t="s">
         <v>329</v>
       </c>
@@ -15032,6 +18200,18 @@
       <c r="H264" s="1">
         <v>43072.359699074077</v>
       </c>
+      <c r="J264">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N264" t="s">
         <v>330</v>
       </c>
@@ -15079,6 +18259,18 @@
       <c r="H265" s="1">
         <v>43072.376192129632</v>
       </c>
+      <c r="J265">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N265" t="s">
         <v>331</v>
       </c>
@@ -15129,6 +18321,18 @@
       <c r="H266" s="1">
         <v>43072.365381944444</v>
       </c>
+      <c r="J266">
+        <f t="shared" si="12"/>
+        <v>1.281676756974548E-4</v>
+      </c>
+      <c r="K266">
+        <f t="shared" si="13"/>
+        <v>2.8760577190212189E-4</v>
+      </c>
+      <c r="L266">
+        <f t="shared" si="14"/>
+        <v>0.47967251003296951</v>
+      </c>
       <c r="N266" t="s">
         <v>332</v>
       </c>
@@ -15179,6 +18383,18 @@
       <c r="H267" s="1">
         <v>43072.361504629633</v>
       </c>
+      <c r="J267">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N267" t="s">
         <v>333</v>
       </c>
@@ -15229,6 +18445,18 @@
       <c r="H268" s="1">
         <v>43072.368321759262</v>
       </c>
+      <c r="J268">
+        <f t="shared" si="12"/>
+        <v>8.6511261017108154E-6</v>
+      </c>
+      <c r="K268">
+        <f t="shared" si="13"/>
+        <v>6.1013701966317058E-6</v>
+      </c>
+      <c r="L268">
+        <f t="shared" si="14"/>
+        <v>4.0885208885089241</v>
+      </c>
       <c r="N268" t="s">
         <v>334</v>
       </c>
@@ -15279,6 +18507,18 @@
       <c r="H269" s="1">
         <v>43072.361574074072</v>
       </c>
+      <c r="J269">
+        <f t="shared" si="12"/>
+        <v>2.2410798280247946E-4</v>
+      </c>
+      <c r="K269">
+        <f t="shared" si="13"/>
+        <v>4.0122230679884296E-4</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="14"/>
+        <v>0.50011800071706602</v>
+      </c>
       <c r="N269" t="s">
         <v>335</v>
       </c>
@@ -15329,6 +18569,18 @@
       <c r="H270" s="1">
         <v>43072.364733796298</v>
       </c>
+      <c r="J270">
+        <f t="shared" si="12"/>
+        <v>7.2745952977015804E-6</v>
+      </c>
+      <c r="K270">
+        <f t="shared" si="13"/>
+        <v>1.4849078496581569E-5</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="14"/>
+        <v>0.77647816896194399</v>
+      </c>
       <c r="N270" t="s">
         <v>336</v>
       </c>
@@ -15379,6 +18631,18 @@
       <c r="H271" s="1">
         <v>43072.360567129632</v>
       </c>
+      <c r="J271">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N271" t="s">
         <v>337</v>
       </c>
@@ -15426,6 +18690,18 @@
       <c r="H272" s="1">
         <v>43072.364965277775</v>
       </c>
+      <c r="J272">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N272" t="s">
         <v>338</v>
       </c>
@@ -15476,6 +18752,18 @@
       <c r="H273" s="1">
         <v>43072.359201388892</v>
       </c>
+      <c r="J273">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N273" t="s">
         <v>340</v>
       </c>
@@ -15523,6 +18811,18 @@
       <c r="H274" s="1">
         <v>43072.359548611108</v>
       </c>
+      <c r="J274">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N274" t="s">
         <v>341</v>
       </c>
@@ -15573,6 +18873,18 @@
       <c r="H275" s="1">
         <v>43072.365347222221</v>
       </c>
+      <c r="J275">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N275" t="s">
         <v>343</v>
       </c>
@@ -15623,6 +18935,18 @@
       <c r="H276" s="1">
         <v>43072.370682870373</v>
       </c>
+      <c r="J276">
+        <f t="shared" si="12"/>
+        <v>2.203988140081492E-5</v>
+      </c>
+      <c r="K276">
+        <f t="shared" si="13"/>
+        <v>1.4339575500343926E-5</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="14"/>
+        <v>13.213838712094002</v>
+      </c>
       <c r="N276" t="s">
         <v>344</v>
       </c>
@@ -15673,6 +18997,18 @@
       <c r="H277" s="1">
         <v>43072.365659722222</v>
       </c>
+      <c r="J277">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N277" t="s">
         <v>346</v>
       </c>
@@ -15723,6 +19059,18 @@
       <c r="H278" s="1">
         <v>43072.36042824074</v>
       </c>
+      <c r="J278">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N278" t="s">
         <v>347</v>
       </c>
@@ -15773,6 +19121,18 @@
       <c r="H279" s="1">
         <v>43072.368761574071</v>
       </c>
+      <c r="J279">
+        <f t="shared" si="12"/>
+        <v>9.7458747404743917E-5</v>
+      </c>
+      <c r="K279">
+        <f t="shared" si="13"/>
+        <v>1.0428416090491055E-4</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="14"/>
+        <v>0.4518073868139254</v>
+      </c>
       <c r="N279" t="s">
         <v>348</v>
       </c>
@@ -15823,6 +19183,18 @@
       <c r="H280" s="1">
         <v>43072.367731481485</v>
       </c>
+      <c r="J280">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N280" t="s">
         <v>350</v>
       </c>
@@ -15873,6 +19245,18 @@
       <c r="H281" s="1">
         <v>43072.368518518517</v>
       </c>
+      <c r="J281">
+        <f t="shared" si="12"/>
+        <v>1.9379889977244602E-6</v>
+      </c>
+      <c r="K281">
+        <f t="shared" si="13"/>
+        <v>3.9388064998036043E-5</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="14"/>
+        <v>2.6862909611469377</v>
+      </c>
       <c r="N281" t="s">
         <v>351</v>
       </c>
@@ -15923,6 +19307,18 @@
       <c r="H282" s="1">
         <v>43072.368379629632</v>
       </c>
+      <c r="J282">
+        <f t="shared" si="12"/>
+        <v>4.4199970972158553E-6</v>
+      </c>
+      <c r="K282">
+        <f t="shared" si="13"/>
+        <v>2.166607740150539E-5</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="14"/>
+        <v>1.288515151937986</v>
+      </c>
       <c r="N282" t="s">
         <v>352</v>
       </c>
@@ -15970,6 +19366,18 @@
       <c r="H283" s="1">
         <v>43072.36209490741</v>
       </c>
+      <c r="J283">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N283" t="s">
         <v>353</v>
       </c>
@@ -16020,6 +19428,18 @@
       <c r="H284" s="1">
         <v>43072.365486111114</v>
       </c>
+      <c r="J284">
+        <f t="shared" si="12"/>
+        <v>2.5206109310005331E-4</v>
+      </c>
+      <c r="K284">
+        <f t="shared" si="13"/>
+        <v>4.338702679973494E-5</v>
+      </c>
+      <c r="L284">
+        <f t="shared" si="14"/>
+        <v>1.5944028849429515</v>
+      </c>
       <c r="N284" t="s">
         <v>354</v>
       </c>
@@ -16070,6 +19490,18 @@
       <c r="H285" s="1">
         <v>43072.365277777775</v>
       </c>
+      <c r="J285">
+        <f t="shared" si="12"/>
+        <v>5.276841499579632E-5</v>
+      </c>
+      <c r="K285">
+        <f t="shared" si="13"/>
+        <v>2.2902561810411726E-4</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="14"/>
+        <v>0.99037814297798832</v>
+      </c>
       <c r="N285" t="s">
         <v>355</v>
       </c>
@@ -16120,6 +19552,18 @@
       <c r="H286" s="1">
         <v>43072.362025462964</v>
       </c>
+      <c r="J286">
+        <f t="shared" si="12"/>
+        <v>1.1317405260058422E-4</v>
+      </c>
+      <c r="K286">
+        <f t="shared" si="13"/>
+        <v>7.8842527102551685E-5</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="14"/>
+        <v>3.3095530346000714</v>
+      </c>
       <c r="N286" t="s">
         <v>356</v>
       </c>
@@ -16170,6 +19614,18 @@
       <c r="H287" s="1">
         <v>43072.377187500002</v>
       </c>
+      <c r="J287">
+        <f t="shared" si="12"/>
+        <v>6.9086378999827502E-5</v>
+      </c>
+      <c r="K287">
+        <f t="shared" si="13"/>
+        <v>1.3460993260139276E-4</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="14"/>
+        <v>1.1306079153190467</v>
+      </c>
       <c r="N287" t="s">
         <v>358</v>
       </c>
@@ -16220,6 +19676,18 @@
       <c r="H288" s="1">
         <v>43072.378148148149</v>
       </c>
+      <c r="J288">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N288" t="s">
         <v>359</v>
       </c>
@@ -16270,6 +19738,18 @@
       <c r="H289" s="1">
         <v>43072.370856481481</v>
       </c>
+      <c r="J289">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N289" t="s">
         <v>361</v>
       </c>
@@ -16320,6 +19800,18 @@
       <c r="H290" s="1">
         <v>43072.361851851849</v>
       </c>
+      <c r="J290">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N290" t="s">
         <v>363</v>
       </c>
@@ -16370,6 +19862,18 @@
       <c r="H291" s="1">
         <v>43072.378784722219</v>
       </c>
+      <c r="J291">
+        <f t="shared" si="12"/>
+        <v>2.7326889004086752E-5</v>
+      </c>
+      <c r="K291">
+        <f t="shared" si="13"/>
+        <v>2.3473545520147354E-4</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="14"/>
+        <v>3.2509022871920479</v>
+      </c>
       <c r="N291" t="s">
         <v>365</v>
       </c>
@@ -16420,6 +19924,18 @@
       <c r="H292" s="1">
         <v>43072.370682870373</v>
       </c>
+      <c r="J292">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N292" t="s">
         <v>366</v>
       </c>
@@ -16470,6 +19986,18 @@
       <c r="H293" s="1">
         <v>43072.364999999998</v>
       </c>
+      <c r="J293">
+        <f t="shared" si="12"/>
+        <v>9.8111519598376162E-5</v>
+      </c>
+      <c r="K293">
+        <f t="shared" si="13"/>
+        <v>1.1313767619469672E-4</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="14"/>
+        <v>2.8722035999669515</v>
+      </c>
       <c r="N293" t="s">
         <v>368</v>
       </c>
@@ -16520,6 +20048,18 @@
       <c r="H294" s="1">
         <v>43072.368101851855</v>
       </c>
+      <c r="J294">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N294" t="s">
         <v>370</v>
       </c>
@@ -16570,6 +20110,18 @@
       <c r="H295" s="1">
         <v>43072.359201388892</v>
       </c>
+      <c r="J295">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N295" t="s">
         <v>372</v>
       </c>
@@ -16620,6 +20172,18 @@
       <c r="H296" s="1">
         <v>43072.368414351855</v>
       </c>
+      <c r="J296">
+        <f t="shared" si="12"/>
+        <v>3.4808252401319351E-5</v>
+      </c>
+      <c r="K296">
+        <f t="shared" si="13"/>
+        <v>9.7739959400655607E-5</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="14"/>
+        <v>0.53221533266207643</v>
+      </c>
       <c r="N296" t="s">
         <v>373</v>
       </c>
@@ -16670,6 +20234,18 @@
       <c r="H297" s="1">
         <v>43072.360532407409</v>
       </c>
+      <c r="J297">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N297" t="s">
         <v>374</v>
       </c>
@@ -16720,6 +20296,18 @@
       <c r="H298" s="1">
         <v>43072.361643518518</v>
       </c>
+      <c r="J298">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="N298" t="s">
         <v>376</v>
       </c>
@@ -16770,6 +20358,18 @@
       <c r="H299" s="1">
         <v>43072.365486111114</v>
       </c>
+      <c r="J299">
+        <f t="shared" si="12"/>
+        <v>1.3000650930194979E-4</v>
+      </c>
+      <c r="K299">
+        <f t="shared" si="13"/>
+        <v>3.4606218093813368E-5</v>
+      </c>
+      <c r="L299">
+        <f t="shared" si="14"/>
+        <v>7.1149573925026743E-2</v>
+      </c>
       <c r="N299" t="s">
         <v>377</v>
       </c>
@@ -16820,6 +20420,18 @@
       <c r="H300" s="1">
         <v>43072.361643518518</v>
       </c>
+      <c r="J300">
+        <f t="shared" si="12"/>
+        <v>2.4742941798976403E-3</v>
+      </c>
+      <c r="K300">
+        <f t="shared" si="13"/>
+        <v>3.1265622273934923E-3</v>
+      </c>
+      <c r="L300">
+        <f t="shared" si="14"/>
+        <v>7.4434274666909914</v>
+      </c>
       <c r="N300" t="s">
         <v>530</v>
       </c>
@@ -16870,6 +20482,18 @@
       <c r="H301" s="1">
         <v>43072.361886574072</v>
       </c>
+      <c r="J301">
+        <f t="shared" si="12"/>
+        <v>8.2838582989808174E-4</v>
+      </c>
+      <c r="K301">
+        <f t="shared" si="13"/>
+        <v>1.3856530895992591E-3</v>
+      </c>
+      <c r="L301">
+        <f t="shared" si="14"/>
+        <v>1.0605913560940508</v>
+      </c>
       <c r="N301" t="s">
         <v>379</v>
       </c>
@@ -16920,6 +20544,18 @@
       <c r="H302" s="1">
         <v>43072.368067129632</v>
       </c>
+      <c r="J302">
+        <f t="shared" si="12"/>
+        <v>4.658695829036219E-4</v>
+      </c>
+      <c r="K302">
+        <f t="shared" si="13"/>
+        <v>7.2445951240496242E-4</v>
+      </c>
+      <c r="L302">
+        <f t="shared" si="14"/>
+        <v>2.5411361023509471</v>
+      </c>
       <c r="N302" t="s">
         <v>380</v>
       </c>
@@ -16970,6 +20606,18 @@
       <c r="H303" s="1">
         <v>43072.36178240741</v>
       </c>
+      <c r="J303">
+        <f t="shared" si="12"/>
+        <v>1.6880084400128226E-4</v>
+      </c>
+      <c r="K303">
+        <f t="shared" si="13"/>
+        <v>1.5017791869809116E-4</v>
+      </c>
+      <c r="L303">
+        <f t="shared" si="14"/>
+        <v>6.8146774253023068E-2</v>
+      </c>
       <c r="N303" t="s">
         <v>381</v>
       </c>
@@ -17020,6 +20668,18 @@
       <c r="H304" s="1">
         <v>43072.361990740741</v>
       </c>
+      <c r="J304">
+        <f t="shared" si="12"/>
+        <v>8.7719422850085493E-4</v>
+      </c>
+      <c r="K304">
+        <f t="shared" si="13"/>
+        <v>1.0277897404975533E-3</v>
+      </c>
+      <c r="L304">
+        <f t="shared" si="14"/>
+        <v>3.7386016282139281</v>
+      </c>
       <c r="N304" t="s">
         <v>382</v>
       </c>
@@ -17067,6 +20727,18 @@
       <c r="H305" s="1">
         <v>43072.361817129633</v>
       </c>
+      <c r="J305">
+        <f t="shared" si="12"/>
+        <v>7.2160503349749661E-4</v>
+      </c>
+      <c r="K305">
+        <f t="shared" si="13"/>
+        <v>6.8222469960232957E-4</v>
+      </c>
+      <c r="L305">
+        <f t="shared" si="14"/>
+        <v>1.2444936639894877E-3</v>
+      </c>
       <c r="N305" t="s">
         <v>383</v>
       </c>
@@ -17117,6 +20789,18 @@
       <c r="H306" s="1">
         <v>43072.379525462966</v>
       </c>
+      <c r="J306">
+        <f t="shared" si="12"/>
+        <v>6.5398482809797542E-4</v>
+      </c>
+      <c r="K306">
+        <f t="shared" si="13"/>
+        <v>7.2573051449609238E-4</v>
+      </c>
+      <c r="L306">
+        <f t="shared" si="14"/>
+        <v>11.541448208412021</v>
+      </c>
       <c r="N306" t="s">
         <v>384</v>
       </c>
@@ -17167,6 +20851,18 @@
       <c r="H307" s="1">
         <v>43072.359942129631</v>
       </c>
+      <c r="J307">
+        <f t="shared" si="12"/>
+        <v>2.8759832549951625E-4</v>
+      </c>
+      <c r="K307">
+        <f t="shared" si="13"/>
+        <v>1.7471008534002408E-3</v>
+      </c>
+      <c r="L307">
+        <f t="shared" si="14"/>
+        <v>1.2816628227360525</v>
+      </c>
       <c r="N307" t="s">
         <v>385</v>
       </c>
@@ -17217,6 +20913,18 @@
       <c r="H308" s="1">
         <v>43072.36209490741</v>
       </c>
+      <c r="J308">
+        <f t="shared" si="12"/>
+        <v>1.0126141812989431E-3</v>
+      </c>
+      <c r="K308">
+        <f t="shared" si="13"/>
+        <v>3.5839692120021027E-4</v>
+      </c>
+      <c r="L308">
+        <f t="shared" si="14"/>
+        <v>4.9366347317500185</v>
+      </c>
       <c r="N308" t="s">
         <v>387</v>
       </c>
@@ -17267,6 +20975,18 @@
       <c r="H309" s="1">
         <v>43072.364722222221</v>
       </c>
+      <c r="J309">
+        <f t="shared" si="12"/>
+        <v>1.9509928932990306E-3</v>
+      </c>
+      <c r="K309">
+        <f t="shared" si="13"/>
+        <v>1.2288185994009382E-3</v>
+      </c>
+      <c r="L309">
+        <f t="shared" si="14"/>
+        <v>6.0027631453509684</v>
+      </c>
       <c r="N309" t="s">
         <v>388</v>
       </c>
@@ -17317,6 +21037,18 @@
       <c r="H310" s="1">
         <v>43072.361712962964</v>
       </c>
+      <c r="J310">
+        <f t="shared" si="12"/>
+        <v>8.6962077801899795E-5</v>
+      </c>
+      <c r="K310">
+        <f t="shared" si="13"/>
+        <v>3.1624553059828031E-4</v>
+      </c>
+      <c r="L310">
+        <f t="shared" si="14"/>
+        <v>10.365693801129964</v>
+      </c>
       <c r="N310" t="s">
         <v>390</v>
       </c>
@@ -17367,6 +21099,18 @@
       <c r="H311" s="1">
         <v>43072.359375</v>
       </c>
+      <c r="J311">
+        <f t="shared" si="12"/>
+        <v>2.3700590575970182E-3</v>
+      </c>
+      <c r="K311">
+        <f t="shared" si="13"/>
+        <v>2.4860825888950444E-3</v>
+      </c>
+      <c r="L311">
+        <f t="shared" si="14"/>
+        <v>1.3884148238159923</v>
+      </c>
       <c r="N311" t="s">
         <v>392</v>
       </c>
@@ -17417,6 +21161,18 @@
       <c r="H312" s="1">
         <v>43072.379131944443</v>
       </c>
+      <c r="J312">
+        <f t="shared" si="12"/>
+        <v>1.3096593709960302E-3</v>
+      </c>
+      <c r="K312">
+        <f t="shared" si="13"/>
+        <v>2.5714194381976085E-3</v>
+      </c>
+      <c r="L312">
+        <f t="shared" si="14"/>
+        <v>4.968651814029954</v>
+      </c>
       <c r="N312" t="s">
         <v>394</v>
       </c>
@@ -17467,6 +21223,18 @@
       <c r="H313" s="1">
         <v>43072.370648148149</v>
       </c>
+      <c r="J313">
+        <f t="shared" si="12"/>
+        <v>1.0425057657030834E-3</v>
+      </c>
+      <c r="K313">
+        <f t="shared" si="13"/>
+        <v>2.12535823962412E-5</v>
+      </c>
+      <c r="L313">
+        <f t="shared" si="14"/>
+        <v>2.0125466380810622</v>
+      </c>
       <c r="N313" t="s">
         <v>396</v>
       </c>
@@ -17517,6 +21285,18 @@
       <c r="H314" s="1">
         <v>43072.368692129632</v>
       </c>
+      <c r="J314">
+        <f t="shared" si="12"/>
+        <v>2.7921840141971188E-3</v>
+      </c>
+      <c r="K314">
+        <f t="shared" si="13"/>
+        <v>6.7130815640581432E-4</v>
+      </c>
+      <c r="L314">
+        <f t="shared" si="14"/>
+        <v>7.0514255270990134</v>
+      </c>
       <c r="N314" t="s">
         <v>397</v>
       </c>
@@ -17567,6 +21347,18 @@
       <c r="H315" s="1">
         <v>43072.370578703703</v>
       </c>
+      <c r="J315">
+        <f t="shared" si="12"/>
+        <v>2.7846521978958094E-3</v>
+      </c>
+      <c r="K315">
+        <f t="shared" si="13"/>
+        <v>6.667725143998382E-4</v>
+      </c>
+      <c r="L315">
+        <f t="shared" si="14"/>
+        <v>24.317795615328009</v>
+      </c>
       <c r="N315" t="s">
         <v>398</v>
       </c>
@@ -17617,6 +21409,18 @@
       <c r="H316" s="1">
         <v>43072.359548611108</v>
       </c>
+      <c r="J316">
+        <f t="shared" si="12"/>
+        <v>1.9548105124016502E-3</v>
+      </c>
+      <c r="K316">
+        <f t="shared" si="13"/>
+        <v>1.7976389919027724E-3</v>
+      </c>
+      <c r="L316">
+        <f t="shared" si="14"/>
+        <v>11.279362523358031</v>
+      </c>
       <c r="N316" t="s">
         <v>399</v>
       </c>
@@ -17667,6 +21471,18 @@
       <c r="H317" s="1">
         <v>43072.368275462963</v>
       </c>
+      <c r="J317">
+        <f t="shared" si="12"/>
+        <v>9.2950165239358284E-4</v>
+      </c>
+      <c r="K317">
+        <f t="shared" si="13"/>
+        <v>1.0299139946994273E-3</v>
+      </c>
+      <c r="L317">
+        <f t="shared" si="14"/>
+        <v>3.4769959419539873</v>
+      </c>
       <c r="N317" t="s">
         <v>401</v>
       </c>
@@ -17717,6 +21533,18 @@
       <c r="H318" s="1">
         <v>43072.359907407408</v>
       </c>
+      <c r="J318">
+        <f t="shared" si="12"/>
+        <v>2.5512711110309283E-4</v>
+      </c>
+      <c r="K318">
+        <f t="shared" si="13"/>
+        <v>1.5184206305036696E-3</v>
+      </c>
+      <c r="L318">
+        <f t="shared" si="14"/>
+        <v>8.7014320696790719</v>
+      </c>
       <c r="N318" t="s">
         <v>402</v>
       </c>
@@ -17764,6 +21592,18 @@
       <c r="H319" s="1">
         <v>43072.365173611113</v>
       </c>
+      <c r="J319">
+        <f t="shared" si="12"/>
+        <v>6.0012761800010139E-4</v>
+      </c>
+      <c r="K319">
+        <f t="shared" si="13"/>
+        <v>1.2587601606028898E-3</v>
+      </c>
+      <c r="L319">
+        <f t="shared" si="14"/>
+        <v>23.889597852950033</v>
+      </c>
       <c r="N319" t="s">
         <v>403</v>
       </c>
@@ -17814,6 +21654,18 @@
       <c r="H320" s="1">
         <v>43072.365555555552</v>
       </c>
+      <c r="J320">
+        <f t="shared" si="12"/>
+        <v>9.8896333360443123E-4</v>
+      </c>
+      <c r="K320">
+        <f t="shared" si="13"/>
+        <v>8.0979506340383978E-4</v>
+      </c>
+      <c r="L320">
+        <f t="shared" si="14"/>
+        <v>20.398401401924048</v>
+      </c>
       <c r="N320" t="s">
         <v>404</v>
       </c>
@@ -17861,6 +21713,18 @@
       <c r="H321" s="1">
         <v>43072.361608796295</v>
       </c>
+      <c r="J321">
+        <f t="shared" si="12"/>
+        <v>2.9762489497997535E-3</v>
+      </c>
+      <c r="K321">
+        <f t="shared" si="13"/>
+        <v>7.7810460970084705E-4</v>
+      </c>
+      <c r="L321">
+        <f t="shared" si="14"/>
+        <v>0.68686070998694504</v>
+      </c>
       <c r="N321" t="s">
         <v>406</v>
       </c>
@@ -17911,6 +21775,18 @@
       <c r="H322" s="1">
         <v>43072.359143518515</v>
       </c>
+      <c r="J322">
+        <f t="shared" si="12"/>
+        <v>2.5288456129004544E-3</v>
+      </c>
+      <c r="K322">
+        <f t="shared" si="13"/>
+        <v>3.4515044033014419E-3</v>
+      </c>
+      <c r="L322">
+        <f t="shared" si="14"/>
+        <v>6.6008998205020362</v>
+      </c>
       <c r="N322" t="s">
         <v>407</v>
       </c>
@@ -17958,6 +21834,18 @@
       <c r="H323" s="1">
         <v>43072.365393518521</v>
       </c>
+      <c r="J323">
+        <f t="shared" ref="J323:J386" si="15">ABS(E323-R323)</f>
+        <v>3.117820667952742E-4</v>
+      </c>
+      <c r="K323">
+        <f t="shared" ref="K323:K386" si="16">ABS(F323-S323)</f>
+        <v>2.1547671217021502E-3</v>
+      </c>
+      <c r="L323">
+        <f t="shared" si="14"/>
+        <v>0.53183332218100077</v>
+      </c>
       <c r="N323" t="s">
         <v>409</v>
       </c>
@@ -18008,6 +21896,18 @@
       <c r="H324" s="1">
         <v>43072.359629629631</v>
       </c>
+      <c r="J324">
+        <f t="shared" si="15"/>
+        <v>8.8476117469582505E-4</v>
+      </c>
+      <c r="K324">
+        <f t="shared" si="16"/>
+        <v>1.1804269528994382E-3</v>
+      </c>
+      <c r="L324">
+        <f t="shared" ref="L324:L387" si="17">ABS(G324-T324)</f>
+        <v>8.7395722454550651</v>
+      </c>
       <c r="N324" t="s">
         <v>410</v>
       </c>
@@ -18055,6 +21955,18 @@
       <c r="H325" s="1">
         <v>43072.359907407408</v>
       </c>
+      <c r="J325">
+        <f t="shared" si="15"/>
+        <v>5.814651155020556E-4</v>
+      </c>
+      <c r="K325">
+        <f t="shared" si="16"/>
+        <v>8.6797525803206099E-5</v>
+      </c>
+      <c r="L325">
+        <f t="shared" si="17"/>
+        <v>0.4217700609970052</v>
+      </c>
       <c r="N325" t="s">
         <v>411</v>
       </c>
@@ -18105,6 +22017,18 @@
       <c r="H326" s="1">
         <v>43072.362164351849</v>
       </c>
+      <c r="J326">
+        <f t="shared" si="15"/>
+        <v>9.4943857740048543E-4</v>
+      </c>
+      <c r="K326">
+        <f t="shared" si="16"/>
+        <v>9.9510125289725693E-4</v>
+      </c>
+      <c r="L326">
+        <f t="shared" si="17"/>
+        <v>1.3081501994180371</v>
+      </c>
       <c r="N326" t="s">
         <v>412</v>
       </c>
@@ -18155,6 +22079,18 @@
       <c r="H327" s="1">
         <v>43072.359340277777</v>
       </c>
+      <c r="J327">
+        <f t="shared" si="15"/>
+        <v>3.122195011044937E-4</v>
+      </c>
+      <c r="K327">
+        <f t="shared" si="16"/>
+        <v>1.6757935485998132E-3</v>
+      </c>
+      <c r="L327">
+        <f t="shared" si="17"/>
+        <v>1.4475377567490568</v>
+      </c>
       <c r="N327" t="s">
         <v>413</v>
       </c>
@@ -18205,6 +22141,18 @@
       <c r="H328" s="1">
         <v>43072.365833333337</v>
       </c>
+      <c r="J328">
+        <f t="shared" si="15"/>
+        <v>2.0271014870587578E-4</v>
+      </c>
+      <c r="K328">
+        <f t="shared" si="16"/>
+        <v>2.518141820402775E-3</v>
+      </c>
+      <c r="L328">
+        <f t="shared" si="17"/>
+        <v>4.2667983864159851</v>
+      </c>
       <c r="N328" t="s">
         <v>415</v>
       </c>
@@ -18255,6 +22203,18 @@
       <c r="H329" s="1">
         <v>43072.377754629626</v>
       </c>
+      <c r="J329">
+        <f t="shared" si="15"/>
+        <v>6.9539496649895227E-4</v>
+      </c>
+      <c r="K329">
+        <f t="shared" si="16"/>
+        <v>5.6650205301878032E-5</v>
+      </c>
+      <c r="L329">
+        <f t="shared" si="17"/>
+        <v>0.31989480896402256</v>
+      </c>
       <c r="N329" t="s">
         <v>417</v>
       </c>
@@ -18305,6 +22265,18 @@
       <c r="H330" s="1">
         <v>43072.368275462963</v>
       </c>
+      <c r="J330">
+        <f t="shared" si="15"/>
+        <v>8.3893918579747151E-4</v>
+      </c>
+      <c r="K330">
+        <f t="shared" si="16"/>
+        <v>4.5563190290209832E-4</v>
+      </c>
+      <c r="L330">
+        <f t="shared" si="17"/>
+        <v>0.28361320226690623</v>
+      </c>
       <c r="N330" t="s">
         <v>418</v>
       </c>
@@ -18355,6 +22327,18 @@
       <c r="H331" s="1">
         <v>43072.362384259257</v>
       </c>
+      <c r="J331">
+        <f t="shared" si="15"/>
+        <v>1.3870518193996872E-3</v>
+      </c>
+      <c r="K331">
+        <f t="shared" si="16"/>
+        <v>3.9063567069774763E-4</v>
+      </c>
+      <c r="L331">
+        <f t="shared" si="17"/>
+        <v>8.0064283281000144</v>
+      </c>
       <c r="N331" t="s">
         <v>419</v>
       </c>
@@ -18405,6 +22389,18 @@
       <c r="H332" s="1">
         <v>43072.365555555552</v>
       </c>
+      <c r="J332">
+        <f t="shared" si="15"/>
+        <v>4.2688681850222565E-4</v>
+      </c>
+      <c r="K332">
+        <f t="shared" si="16"/>
+        <v>3.0436422510149441E-4</v>
+      </c>
+      <c r="L332">
+        <f t="shared" si="17"/>
+        <v>1.2846435046679971</v>
+      </c>
       <c r="N332" t="s">
         <v>420</v>
       </c>
@@ -18455,6 +22451,18 @@
       <c r="H333" s="1">
         <v>43072.360879629632</v>
       </c>
+      <c r="J333">
+        <f t="shared" si="15"/>
+        <v>3.126774629500062E-3</v>
+      </c>
+      <c r="K333">
+        <f t="shared" si="16"/>
+        <v>1.7911424877965487E-3</v>
+      </c>
+      <c r="L333">
+        <f t="shared" si="17"/>
+        <v>0.83651032793204649</v>
+      </c>
       <c r="N333" t="s">
         <v>422</v>
       </c>
@@ -18505,6 +22513,18 @@
       <c r="H334" s="1">
         <v>43072.364618055559</v>
       </c>
+      <c r="J334">
+        <f t="shared" si="15"/>
+        <v>2.3620915390409891E-4</v>
+      </c>
+      <c r="K334">
+        <f t="shared" si="16"/>
+        <v>1.0825422543021546E-3</v>
+      </c>
+      <c r="L334">
+        <f t="shared" si="17"/>
+        <v>9.7558674532690475</v>
+      </c>
       <c r="N334" t="s">
         <v>423</v>
       </c>
@@ -18555,6 +22575,18 @@
       <c r="H335" s="1">
         <v>43072.359907407408</v>
       </c>
+      <c r="J335">
+        <f t="shared" si="15"/>
+        <v>1.1717840055993634E-3</v>
+      </c>
+      <c r="K335">
+        <f t="shared" si="16"/>
+        <v>2.5236074062959801E-3</v>
+      </c>
+      <c r="L335">
+        <f t="shared" si="17"/>
+        <v>15.708211802471965</v>
+      </c>
       <c r="N335" t="s">
         <v>424</v>
       </c>
@@ -18602,6 +22634,18 @@
       <c r="H336" s="1">
         <v>43072.371168981481</v>
       </c>
+      <c r="J336">
+        <f t="shared" si="15"/>
+        <v>9.9575687490016662E-4</v>
+      </c>
+      <c r="K336">
+        <f t="shared" si="16"/>
+        <v>9.2010547800214226E-4</v>
+      </c>
+      <c r="L336">
+        <f t="shared" si="17"/>
+        <v>22.369716437382976</v>
+      </c>
       <c r="N336" t="s">
         <v>425</v>
       </c>
@@ -18652,6 +22696,18 @@
       <c r="H337" s="1">
         <v>43072.359664351854</v>
       </c>
+      <c r="J337">
+        <f t="shared" si="15"/>
+        <v>8.7357835310086784E-4</v>
+      </c>
+      <c r="K337">
+        <f t="shared" si="16"/>
+        <v>1.4921725190006896E-3</v>
+      </c>
+      <c r="L337">
+        <f t="shared" si="17"/>
+        <v>12.060080183123887</v>
+      </c>
       <c r="N337" t="s">
         <v>426</v>
       </c>
@@ -18702,6 +22758,18 @@
       <c r="H338" s="1">
         <v>43072.368067129632</v>
       </c>
+      <c r="J338">
+        <f t="shared" si="15"/>
+        <v>1.3504753849957751E-3</v>
+      </c>
+      <c r="K338">
+        <f t="shared" si="16"/>
+        <v>1.9849328225021168E-3</v>
+      </c>
+      <c r="L338">
+        <f t="shared" si="17"/>
+        <v>6.6815586358379733</v>
+      </c>
       <c r="N338" t="s">
         <v>428</v>
       </c>
@@ -18752,6 +22820,18 @@
       <c r="H339" s="1">
         <v>43072.379571759258</v>
       </c>
+      <c r="J339">
+        <f t="shared" si="15"/>
+        <v>8.5526117839407334E-4</v>
+      </c>
+      <c r="K339">
+        <f t="shared" si="16"/>
+        <v>2.7346351559742743E-4</v>
+      </c>
+      <c r="L339">
+        <f t="shared" si="17"/>
+        <v>11.793297375385009</v>
+      </c>
       <c r="N339" t="s">
         <v>430</v>
       </c>
@@ -18799,6 +22879,18 @@
       <c r="H340" s="1">
         <v>43072.365486111114</v>
       </c>
+      <c r="J340">
+        <f t="shared" si="15"/>
+        <v>1.8071911590027412E-3</v>
+      </c>
+      <c r="K340">
+        <f t="shared" si="16"/>
+        <v>4.6992303669668445E-4</v>
+      </c>
+      <c r="L340">
+        <f t="shared" si="17"/>
+        <v>7.2614919118540229</v>
+      </c>
       <c r="N340" t="s">
         <v>431</v>
       </c>
@@ -18849,6 +22941,18 @@
       <c r="H341" s="1">
         <v>43072.362523148149</v>
       </c>
+      <c r="J341">
+        <f t="shared" si="15"/>
+        <v>3.6179894529908552E-4</v>
+      </c>
+      <c r="K341">
+        <f t="shared" si="16"/>
+        <v>9.1154175393626247E-5</v>
+      </c>
+      <c r="L341">
+        <f t="shared" si="17"/>
+        <v>8.6428641563410338</v>
+      </c>
       <c r="N341" t="s">
         <v>432</v>
       </c>
@@ -18896,6 +23000,18 @@
       <c r="H342" s="1">
         <v>43072.36209490741</v>
       </c>
+      <c r="J342">
+        <f t="shared" si="15"/>
+        <v>1.1450155570003062E-4</v>
+      </c>
+      <c r="K342">
+        <f t="shared" si="16"/>
+        <v>1.1882808723058247E-3</v>
+      </c>
+      <c r="L342">
+        <f t="shared" si="17"/>
+        <v>0.14909830834301374</v>
+      </c>
       <c r="N342" t="s">
         <v>433</v>
       </c>
@@ -18943,6 +23059,18 @@
       <c r="H343" s="1">
         <v>43072.365671296298</v>
       </c>
+      <c r="J343">
+        <f t="shared" si="15"/>
+        <v>7.1886064404225181E-5</v>
+      </c>
+      <c r="K343">
+        <f t="shared" si="16"/>
+        <v>1.0484655874023474E-3</v>
+      </c>
+      <c r="L343">
+        <f t="shared" si="17"/>
+        <v>21.119120316232966</v>
+      </c>
       <c r="N343" t="s">
         <v>434</v>
       </c>
@@ -18990,6 +23118,18 @@
       <c r="H344" s="1">
         <v>43072.359409722223</v>
       </c>
+      <c r="J344">
+        <f t="shared" si="15"/>
+        <v>2.6676503400580032E-4</v>
+      </c>
+      <c r="K344">
+        <f t="shared" si="16"/>
+        <v>2.2069424249977487E-3</v>
+      </c>
+      <c r="L344">
+        <f t="shared" si="17"/>
+        <v>21.043064249578038</v>
+      </c>
       <c r="N344" t="s">
         <v>435</v>
       </c>
@@ -19040,6 +23180,18 @@
       <c r="H345" s="1">
         <v>43072.364999999998</v>
       </c>
+      <c r="J345">
+        <f t="shared" si="15"/>
+        <v>7.0651723019921064E-4</v>
+      </c>
+      <c r="K345">
+        <f t="shared" si="16"/>
+        <v>1.7357716421955161E-3</v>
+      </c>
+      <c r="L345">
+        <f t="shared" si="17"/>
+        <v>18.386749068991094</v>
+      </c>
       <c r="N345" t="s">
         <v>436</v>
       </c>
@@ -19090,6 +23242,18 @@
       <c r="H346" s="1">
         <v>43072.361851851849</v>
       </c>
+      <c r="J346">
+        <f t="shared" si="15"/>
+        <v>1.0905782432004685E-3</v>
+      </c>
+      <c r="K346">
+        <f t="shared" si="16"/>
+        <v>1.5017721369758874E-4</v>
+      </c>
+      <c r="L346">
+        <f t="shared" si="17"/>
+        <v>19.564205125416038</v>
+      </c>
       <c r="N346" t="s">
         <v>437</v>
       </c>
@@ -19140,6 +23304,18 @@
       <c r="H347" s="1">
         <v>43072.379525462966</v>
       </c>
+      <c r="J347">
+        <f t="shared" si="15"/>
+        <v>1.0497341826010143E-3</v>
+      </c>
+      <c r="K347">
+        <f t="shared" si="16"/>
+        <v>8.9381109089714528E-4</v>
+      </c>
+      <c r="L347">
+        <f t="shared" si="17"/>
+        <v>12.142925489310983</v>
+      </c>
       <c r="N347" t="s">
         <v>438</v>
       </c>
@@ -19190,6 +23366,18 @@
       <c r="H348" s="1">
         <v>43072.379571759258</v>
       </c>
+      <c r="J348">
+        <f t="shared" si="15"/>
+        <v>4.2737607500953345E-5</v>
+      </c>
+      <c r="K348">
+        <f t="shared" si="16"/>
+        <v>4.4906302996139402E-5</v>
+      </c>
+      <c r="L348">
+        <f t="shared" si="17"/>
+        <v>1.4104019903180642</v>
+      </c>
       <c r="N348" t="s">
         <v>439</v>
       </c>
@@ -19240,6 +23428,18 @@
       <c r="H349" s="1">
         <v>43072.368101851855</v>
       </c>
+      <c r="J349">
+        <f t="shared" si="15"/>
+        <v>7.0753655009525573E-4</v>
+      </c>
+      <c r="K349">
+        <f t="shared" si="16"/>
+        <v>5.9187479889999395E-4</v>
+      </c>
+      <c r="L349">
+        <f t="shared" si="17"/>
+        <v>11.123430297813002</v>
+      </c>
       <c r="N349" t="s">
         <v>440</v>
       </c>
@@ -19290,6 +23490,18 @@
       <c r="H350" s="1">
         <v>43072.372083333335</v>
       </c>
+      <c r="J350">
+        <f t="shared" si="15"/>
+        <v>2.3254823999963037E-4</v>
+      </c>
+      <c r="K350">
+        <f t="shared" si="16"/>
+        <v>1.8442386767958396E-3</v>
+      </c>
+      <c r="L350">
+        <f t="shared" si="17"/>
+        <v>10.797448273631971</v>
+      </c>
       <c r="N350" t="s">
         <v>442</v>
       </c>
@@ -19340,6 +23552,18 @@
       <c r="H351" s="1">
         <v>43072.36923611111</v>
       </c>
+      <c r="J351">
+        <f t="shared" si="15"/>
+        <v>1.8167825369630464E-4</v>
+      </c>
+      <c r="K351">
+        <f t="shared" si="16"/>
+        <v>6.4294313909840639E-4</v>
+      </c>
+      <c r="L351">
+        <f t="shared" si="17"/>
+        <v>5.5532731016120351</v>
+      </c>
       <c r="N351" t="s">
         <v>444</v>
       </c>
@@ -19387,6 +23611,18 @@
       <c r="H352" s="1">
         <v>43072.369166666664</v>
       </c>
+      <c r="J352">
+        <f t="shared" si="15"/>
+        <v>9.166010080008391E-5</v>
+      </c>
+      <c r="K352">
+        <f t="shared" si="16"/>
+        <v>2.4639878330390275E-4</v>
+      </c>
+      <c r="L352">
+        <f t="shared" si="17"/>
+        <v>8.6722146164800051</v>
+      </c>
       <c r="N352" t="s">
         <v>445</v>
       </c>
@@ -19434,6 +23670,18 @@
       <c r="H353" s="1">
         <v>43072.363182870373</v>
       </c>
+      <c r="J353">
+        <f t="shared" si="15"/>
+        <v>9.182471378039736E-4</v>
+      </c>
+      <c r="K353">
+        <f t="shared" si="16"/>
+        <v>8.0342378180375817E-4</v>
+      </c>
+      <c r="L353">
+        <f t="shared" si="17"/>
+        <v>7.6737167634400976</v>
+      </c>
       <c r="N353" t="s">
         <v>446</v>
       </c>
@@ -19481,6 +23729,18 @@
       <c r="H354" s="1">
         <v>43072.365636574075</v>
       </c>
+      <c r="J354">
+        <f t="shared" si="15"/>
+        <v>2.2742753415982975E-3</v>
+      </c>
+      <c r="K354">
+        <f t="shared" si="16"/>
+        <v>1.2177391589034414E-3</v>
+      </c>
+      <c r="L354">
+        <f t="shared" si="17"/>
+        <v>15.526084279833071</v>
+      </c>
       <c r="N354" t="s">
         <v>447</v>
       </c>
@@ -19531,6 +23791,18 @@
       <c r="H355" s="1">
         <v>43072.359837962962</v>
       </c>
+      <c r="J355">
+        <f t="shared" si="15"/>
+        <v>9.0303587449369616E-4</v>
+      </c>
+      <c r="K355">
+        <f t="shared" si="16"/>
+        <v>2.2167895203963894E-3</v>
+      </c>
+      <c r="L355">
+        <f t="shared" si="17"/>
+        <v>22.377740527860965</v>
+      </c>
       <c r="N355" t="s">
         <v>448</v>
       </c>
@@ -19581,6 +23853,18 @@
       <c r="H356" s="1">
         <v>43072.368136574078</v>
       </c>
+      <c r="J356">
+        <f t="shared" si="15"/>
+        <v>3.1669128229339094E-4</v>
+      </c>
+      <c r="K356">
+        <f t="shared" si="16"/>
+        <v>1.3999319514965691E-3</v>
+      </c>
+      <c r="L356">
+        <f t="shared" si="17"/>
+        <v>1.246179658400024</v>
+      </c>
       <c r="N356" t="s">
         <v>449</v>
       </c>
@@ -19631,6 +23915,18 @@
       <c r="H357" s="1">
         <v>43072.366689814815</v>
       </c>
+      <c r="J357">
+        <f t="shared" si="15"/>
+        <v>1.2307865126004458E-3</v>
+      </c>
+      <c r="K357">
+        <f t="shared" si="16"/>
+        <v>2.0453253545014149E-3</v>
+      </c>
+      <c r="L357">
+        <f t="shared" si="17"/>
+        <v>3.1056541632780181</v>
+      </c>
       <c r="N357" t="s">
         <v>450</v>
       </c>
@@ -19681,6 +23977,18 @@
       <c r="H358" s="1">
         <v>43072.368101851855</v>
       </c>
+      <c r="J358">
+        <f t="shared" si="15"/>
+        <v>2.7849703949556215E-4</v>
+      </c>
+      <c r="K358">
+        <f t="shared" si="16"/>
+        <v>1.9677927217003344E-3</v>
+      </c>
+      <c r="L358">
+        <f t="shared" si="17"/>
+        <v>9.1314846770219447</v>
+      </c>
       <c r="N358" t="s">
         <v>451</v>
       </c>
@@ -19731,6 +24039,18 @@
       <c r="H359" s="1">
         <v>43072.364837962959</v>
       </c>
+      <c r="J359">
+        <f t="shared" si="15"/>
+        <v>2.493204384990122E-4</v>
+      </c>
+      <c r="K359">
+        <f t="shared" si="16"/>
+        <v>4.4902241549493738E-4</v>
+      </c>
+      <c r="L359">
+        <f t="shared" si="17"/>
+        <v>1.8948083846159989</v>
+      </c>
       <c r="N359" t="s">
         <v>452</v>
       </c>
@@ -19781,6 +24101,18 @@
       <c r="H360" s="1">
         <v>43072.367696759262</v>
       </c>
+      <c r="J360">
+        <f t="shared" si="15"/>
+        <v>3.70312601702949E-4</v>
+      </c>
+      <c r="K360">
+        <f t="shared" si="16"/>
+        <v>1.379134711001484E-3</v>
+      </c>
+      <c r="L360">
+        <f t="shared" si="17"/>
+        <v>5.425679955357964</v>
+      </c>
       <c r="N360" t="s">
         <v>454</v>
       </c>
@@ -19831,6 +24163,18 @@
       <c r="H361" s="1">
         <v>43072.369270833333</v>
       </c>
+      <c r="J361">
+        <f t="shared" si="15"/>
+        <v>8.3152533220243185E-4</v>
+      </c>
+      <c r="K361">
+        <f t="shared" si="16"/>
+        <v>2.6587627339580422E-4</v>
+      </c>
+      <c r="L361">
+        <f t="shared" si="17"/>
+        <v>4.0074944538879436</v>
+      </c>
       <c r="N361" t="s">
         <v>456</v>
       </c>
@@ -19881,6 +24225,18 @@
       <c r="H362" s="1">
         <v>43072.359699074077</v>
       </c>
+      <c r="J362">
+        <f t="shared" si="15"/>
+        <v>8.0317259120477047E-4</v>
+      </c>
+      <c r="K362">
+        <f t="shared" si="16"/>
+        <v>3.0602234155026053E-3</v>
+      </c>
+      <c r="L362">
+        <f t="shared" si="17"/>
+        <v>8.7207358130609691</v>
+      </c>
       <c r="N362" t="s">
         <v>457</v>
       </c>
@@ -19928,6 +24284,18 @@
       <c r="H363" s="1">
         <v>43072.360046296293</v>
       </c>
+      <c r="J363">
+        <f t="shared" si="15"/>
+        <v>1.4073592218011299E-3</v>
+      </c>
+      <c r="K363">
+        <f t="shared" si="16"/>
+        <v>2.9738842790294484E-4</v>
+      </c>
+      <c r="L363">
+        <f t="shared" si="17"/>
+        <v>1.1368068831420715</v>
+      </c>
       <c r="N363" t="s">
         <v>458</v>
       </c>
@@ -19978,6 +24346,18 @@
       <c r="H364" s="1">
         <v>43072.362129629626</v>
       </c>
+      <c r="J364">
+        <f t="shared" si="15"/>
+        <v>1.7822603780004442E-3</v>
+      </c>
+      <c r="K364">
+        <f t="shared" si="16"/>
+        <v>7.2035769829881247E-4</v>
+      </c>
+      <c r="L364">
+        <f t="shared" si="17"/>
+        <v>2.4697792423600049</v>
+      </c>
       <c r="N364" t="s">
         <v>459</v>
       </c>
@@ -20025,6 +24405,18 @@
       <c r="H365" s="1">
         <v>43072.377754629626</v>
       </c>
+      <c r="J365">
+        <f t="shared" si="15"/>
+        <v>4.9812890800637888E-5</v>
+      </c>
+      <c r="K365">
+        <f t="shared" si="16"/>
+        <v>5.9646039979810439E-4</v>
+      </c>
+      <c r="L365">
+        <f t="shared" si="17"/>
+        <v>8.2138454814889883</v>
+      </c>
       <c r="N365" t="s">
         <v>460</v>
       </c>
@@ -20075,6 +24467,18 @@
       <c r="H366" s="1">
         <v>43072.359872685185</v>
       </c>
+      <c r="J366">
+        <f t="shared" si="15"/>
+        <v>7.3585744269877296E-4</v>
+      </c>
+      <c r="K366">
+        <f t="shared" si="16"/>
+        <v>1.8632177680970585E-3</v>
+      </c>
+      <c r="L366">
+        <f t="shared" si="17"/>
+        <v>8.5553575519310243</v>
+      </c>
       <c r="N366" t="s">
         <v>461</v>
       </c>
@@ -20125,6 +24529,18 @@
       <c r="H367" s="1">
         <v>43072.363043981481</v>
       </c>
+      <c r="J367">
+        <f t="shared" si="15"/>
+        <v>1.0170988228992428E-3</v>
+      </c>
+      <c r="K367">
+        <f t="shared" si="16"/>
+        <v>3.3675579282004264E-3</v>
+      </c>
+      <c r="L367">
+        <f t="shared" si="17"/>
+        <v>5.0751932296069526</v>
+      </c>
       <c r="N367" t="s">
         <v>462</v>
       </c>
@@ -20172,6 +24588,18 @@
       <c r="H368" s="1">
         <v>43072.359768518516</v>
       </c>
+      <c r="J368">
+        <f t="shared" si="15"/>
+        <v>1.3109958089003726E-3</v>
+      </c>
+      <c r="K368">
+        <f t="shared" si="16"/>
+        <v>3.3883897699027443E-3</v>
+      </c>
+      <c r="L368">
+        <f t="shared" si="17"/>
+        <v>4.8636289659380054</v>
+      </c>
       <c r="N368" t="s">
         <v>463</v>
       </c>
@@ -20222,6 +24650,18 @@
       <c r="H369" s="1">
         <v>43072.379525462966</v>
       </c>
+      <c r="J369">
+        <f t="shared" si="15"/>
+        <v>4.4149791850145448E-4</v>
+      </c>
+      <c r="K369">
+        <f t="shared" si="16"/>
+        <v>2.4638877373988066E-3</v>
+      </c>
+      <c r="L369">
+        <f t="shared" si="17"/>
+        <v>12.954966988638034</v>
+      </c>
       <c r="N369" t="s">
         <v>464</v>
       </c>
@@ -20272,6 +24712,18 @@
       <c r="H370" s="1">
         <v>43072.364652777775</v>
       </c>
+      <c r="J370">
+        <f t="shared" si="15"/>
+        <v>9.8151115030020719E-4</v>
+      </c>
+      <c r="K370">
+        <f t="shared" si="16"/>
+        <v>2.5765047320192025E-4</v>
+      </c>
+      <c r="L370">
+        <f t="shared" si="17"/>
+        <v>22.24390746829306</v>
+      </c>
       <c r="N370" t="s">
         <v>466</v>
       </c>
@@ -20322,6 +24774,18 @@
       <c r="H371" s="1">
         <v>43072.359201388892</v>
       </c>
+      <c r="J371">
+        <f t="shared" si="15"/>
+        <v>2.4099532524957112E-3</v>
+      </c>
+      <c r="K371">
+        <f t="shared" si="16"/>
+        <v>2.9333980195005438E-3</v>
+      </c>
+      <c r="L371">
+        <f t="shared" si="17"/>
+        <v>24.031668482491</v>
+      </c>
       <c r="N371" t="s">
         <v>468</v>
       </c>
@@ -20372,6 +24836,18 @@
       <c r="H372" s="1">
         <v>43072.360046296293</v>
       </c>
+      <c r="J372">
+        <f t="shared" si="15"/>
+        <v>2.2126016738965859E-3</v>
+      </c>
+      <c r="K372">
+        <f t="shared" si="16"/>
+        <v>7.3500129870041064E-4</v>
+      </c>
+      <c r="L372">
+        <f t="shared" si="17"/>
+        <v>9.2737008953280338</v>
+      </c>
       <c r="N372" t="s">
         <v>470</v>
       </c>
@@ -20419,6 +24895,18 @@
       <c r="H373" s="1">
         <v>43072.37940972222</v>
       </c>
+      <c r="J373">
+        <f t="shared" si="15"/>
+        <v>9.3778138639777353E-4</v>
+      </c>
+      <c r="K373">
+        <f t="shared" si="16"/>
+        <v>2.0096968859988351E-3</v>
+      </c>
+      <c r="L373">
+        <f t="shared" si="17"/>
+        <v>13.386823558014044</v>
+      </c>
       <c r="N373" t="s">
         <v>471</v>
       </c>
@@ -20469,6 +24957,18 @@
       <c r="H374" s="1">
         <v>43072.359664351854</v>
       </c>
+      <c r="J374">
+        <f t="shared" si="15"/>
+        <v>5.3839506529840264E-4</v>
+      </c>
+      <c r="K374">
+        <f t="shared" si="16"/>
+        <v>2.3274961191006582E-3</v>
+      </c>
+      <c r="L374">
+        <f t="shared" si="17"/>
+        <v>12.203410000019971</v>
+      </c>
       <c r="N374" t="s">
         <v>472</v>
       </c>
@@ -20519,6 +25019,18 @@
       <c r="H375" s="1">
         <v>43072.361574074072</v>
       </c>
+      <c r="J375">
+        <f t="shared" si="15"/>
+        <v>2.1277585926995357E-3</v>
+      </c>
+      <c r="K375">
+        <f t="shared" si="16"/>
+        <v>2.6137055479011906E-3</v>
+      </c>
+      <c r="L375">
+        <f t="shared" si="17"/>
+        <v>0.22004408332304592</v>
+      </c>
       <c r="N375" t="s">
         <v>473</v>
       </c>
@@ -20566,6 +25078,18 @@
       <c r="H376" s="1">
         <v>43072.365208333336</v>
       </c>
+      <c r="J376">
+        <f t="shared" si="15"/>
+        <v>2.2137286226993069E-3</v>
+      </c>
+      <c r="K376">
+        <f t="shared" si="16"/>
+        <v>1.5877105464028318E-3</v>
+      </c>
+      <c r="L376">
+        <f t="shared" si="17"/>
+        <v>13.05202733987403</v>
+      </c>
       <c r="N376" t="s">
         <v>474</v>
       </c>
@@ -20616,6 +25140,18 @@
       <c r="H377" s="1">
         <v>43072.365590277775</v>
       </c>
+      <c r="J377">
+        <f t="shared" si="15"/>
+        <v>9.7464864250440542E-4</v>
+      </c>
+      <c r="K377">
+        <f t="shared" si="16"/>
+        <v>1.2113726375986289E-3</v>
+      </c>
+      <c r="L377">
+        <f t="shared" si="17"/>
+        <v>2.6582954095540572</v>
+      </c>
       <c r="N377" t="s">
         <v>475</v>
       </c>
@@ -20666,6 +25202,18 @@
       <c r="H378" s="1">
         <v>43072.359837962962</v>
       </c>
+      <c r="J378">
+        <f t="shared" si="15"/>
+        <v>1.3396020926990104E-3</v>
+      </c>
+      <c r="K378">
+        <f t="shared" si="16"/>
+        <v>2.190666265093455E-3</v>
+      </c>
+      <c r="L378">
+        <f t="shared" si="17"/>
+        <v>10.40957376083793</v>
+      </c>
       <c r="N378" t="s">
         <v>477</v>
       </c>
@@ -20713,6 +25261,18 @@
       <c r="H379" s="1">
         <v>43072.36178240741</v>
       </c>
+      <c r="J379">
+        <f t="shared" si="15"/>
+        <v>1.0374775995032337E-3</v>
+      </c>
+      <c r="K379">
+        <f t="shared" si="16"/>
+        <v>1.795583164692971E-3</v>
+      </c>
+      <c r="L379">
+        <f t="shared" si="17"/>
+        <v>2.3123360731759703</v>
+      </c>
       <c r="N379" t="s">
         <v>478</v>
       </c>
@@ -20763,6 +25323,18 @@
       <c r="H380" s="1">
         <v>43072.362199074072</v>
       </c>
+      <c r="J380">
+        <f t="shared" si="15"/>
+        <v>2.0386461265005096E-3</v>
+      </c>
+      <c r="K380">
+        <f t="shared" si="16"/>
+        <v>5.8477554679825516E-4</v>
+      </c>
+      <c r="L380">
+        <f t="shared" si="17"/>
+        <v>2.8234005176120718</v>
+      </c>
       <c r="N380" t="s">
         <v>479</v>
       </c>
@@ -20810,6 +25382,18 @@
       <c r="H381" s="1">
         <v>43072.36791666667</v>
       </c>
+      <c r="J381">
+        <f t="shared" si="15"/>
+        <v>2.3100818020012071E-3</v>
+      </c>
+      <c r="K381">
+        <f t="shared" si="16"/>
+        <v>1.5069492534962592E-3</v>
+      </c>
+      <c r="L381">
+        <f t="shared" si="17"/>
+        <v>27.087818030239987</v>
+      </c>
       <c r="N381" t="s">
         <v>480</v>
       </c>
@@ -20860,6 +25444,18 @@
       <c r="H382" s="1">
         <v>43072.381215277775</v>
       </c>
+      <c r="J382">
+        <f t="shared" si="15"/>
+        <v>2.3896781903047781E-3</v>
+      </c>
+      <c r="K382">
+        <f t="shared" si="16"/>
+        <v>4.7401887540132748E-4</v>
+      </c>
+      <c r="L382">
+        <f t="shared" si="17"/>
+        <v>20.611945022528971</v>
+      </c>
       <c r="N382" t="s">
         <v>481</v>
       </c>
@@ -20910,6 +25506,18 @@
       <c r="H383" s="1">
         <v>43072.364525462966</v>
       </c>
+      <c r="J383">
+        <f t="shared" si="15"/>
+        <v>2.474508553497401E-3</v>
+      </c>
+      <c r="K383">
+        <f t="shared" si="16"/>
+        <v>1.0978148975979707E-3</v>
+      </c>
+      <c r="L383">
+        <f t="shared" si="17"/>
+        <v>6.9226612753379868</v>
+      </c>
       <c r="N383" t="s">
         <v>483</v>
       </c>
@@ -20960,6 +25568,18 @@
       <c r="H384" s="1">
         <v>43072.361504629633</v>
       </c>
+      <c r="J384">
+        <f t="shared" si="15"/>
+        <v>2.8877317299702554E-4</v>
+      </c>
+      <c r="K384">
+        <f t="shared" si="16"/>
+        <v>3.8896112519637427E-4</v>
+      </c>
+      <c r="L384">
+        <f t="shared" si="17"/>
+        <v>11.792994156373993</v>
+      </c>
       <c r="N384" t="s">
         <v>484</v>
       </c>
@@ -21007,6 +25627,18 @@
       <c r="H385" s="1">
         <v>43072.360358796293</v>
       </c>
+      <c r="J385">
+        <f t="shared" si="15"/>
+        <v>1.0059609433952232E-3</v>
+      </c>
+      <c r="K385">
+        <f t="shared" si="16"/>
+        <v>1.3232089765011779E-3</v>
+      </c>
+      <c r="L385">
+        <f t="shared" si="17"/>
+        <v>2.8526479984990374</v>
+      </c>
       <c r="N385" t="s">
         <v>485</v>
       </c>
@@ -21057,6 +25689,18 @@
       <c r="H386" s="1">
         <v>43072.359513888892</v>
       </c>
+      <c r="J386">
+        <f t="shared" si="15"/>
+        <v>2.9403392926994343E-3</v>
+      </c>
+      <c r="K386">
+        <f t="shared" si="16"/>
+        <v>2.4755990485019197E-3</v>
+      </c>
+      <c r="L386">
+        <f t="shared" si="17"/>
+        <v>2.553904460206013</v>
+      </c>
       <c r="N386" t="s">
         <v>486</v>
       </c>
@@ -21107,6 +25751,18 @@
       <c r="H387" s="1">
         <v>43072.36451388889</v>
       </c>
+      <c r="J387">
+        <f t="shared" ref="J387:J415" si="18">ABS(E387-R387)</f>
+        <v>2.2223374632019954E-3</v>
+      </c>
+      <c r="K387">
+        <f t="shared" ref="K387:K414" si="19">ABS(F387-S387)</f>
+        <v>3.4225710830000367E-3</v>
+      </c>
+      <c r="L387">
+        <f t="shared" si="17"/>
+        <v>32.675788923826985</v>
+      </c>
       <c r="N387" t="s">
         <v>487</v>
       </c>
@@ -21154,6 +25810,18 @@
       <c r="H388" s="1">
         <v>43072.370439814818</v>
       </c>
+      <c r="J388">
+        <f t="shared" si="18"/>
+        <v>5.5775216701192676E-5</v>
+      </c>
+      <c r="K388">
+        <f t="shared" si="19"/>
+        <v>9.0051699700666177E-5</v>
+      </c>
+      <c r="L388">
+        <f t="shared" ref="L388:L415" si="20">ABS(G388-T388)</f>
+        <v>10.178733425922019</v>
+      </c>
       <c r="N388" t="s">
         <v>488</v>
       </c>
@@ -21201,6 +25869,18 @@
       <c r="H389" s="1">
         <v>43072.373495370368</v>
       </c>
+      <c r="J389">
+        <f t="shared" si="18"/>
+        <v>1.8044833639976332E-3</v>
+      </c>
+      <c r="K389">
+        <f t="shared" si="19"/>
+        <v>1.9219254475970615E-3</v>
+      </c>
+      <c r="L389">
+        <f t="shared" si="20"/>
+        <v>39.205582933790993</v>
+      </c>
       <c r="N389" t="s">
         <v>489</v>
       </c>
@@ -21251,6 +25931,18 @@
       <c r="H390" s="1">
         <v>43072.380011574074</v>
       </c>
+      <c r="J390">
+        <f t="shared" si="18"/>
+        <v>2.2798739960450121E-4</v>
+      </c>
+      <c r="K390">
+        <f t="shared" si="19"/>
+        <v>5.3477361730358552E-4</v>
+      </c>
+      <c r="L390">
+        <f t="shared" si="20"/>
+        <v>11.376324240059944</v>
+      </c>
       <c r="N390" t="s">
         <v>490</v>
       </c>
@@ -21301,6 +25993,18 @@
       <c r="H391" s="1">
         <v>43072.360775462963</v>
       </c>
+      <c r="J391">
+        <f t="shared" si="18"/>
+        <v>2.1282911531983473E-3</v>
+      </c>
+      <c r="K391">
+        <f t="shared" si="19"/>
+        <v>2.6342232880978145E-3</v>
+      </c>
+      <c r="L391">
+        <f t="shared" si="20"/>
+        <v>11.731982076084023</v>
+      </c>
       <c r="N391" t="s">
         <v>491</v>
       </c>
@@ -21351,6 +26055,18 @@
       <c r="H392" s="1">
         <v>43072.366053240738</v>
       </c>
+      <c r="J392">
+        <f t="shared" si="18"/>
+        <v>1.6088637968962871E-3</v>
+      </c>
+      <c r="K392">
+        <f t="shared" si="19"/>
+        <v>1.2613092527971048E-3</v>
+      </c>
+      <c r="L392">
+        <f t="shared" si="20"/>
+        <v>13.965413992214962</v>
+      </c>
       <c r="N392" t="s">
         <v>492</v>
       </c>
@@ -21398,6 +26114,18 @@
       <c r="H393" s="1">
         <v>43072.362164351849</v>
       </c>
+      <c r="J393">
+        <f t="shared" si="18"/>
+        <v>1.6374135951977564E-3</v>
+      </c>
+      <c r="K393">
+        <f t="shared" si="19"/>
+        <v>1.701861346198541E-3</v>
+      </c>
+      <c r="L393">
+        <f t="shared" si="20"/>
+        <v>12.670008708164005</v>
+      </c>
       <c r="N393" t="s">
         <v>493</v>
       </c>
@@ -21448,6 +26176,18 @@
       <c r="H394" s="1">
         <v>43072.365428240744</v>
       </c>
+      <c r="J394">
+        <f t="shared" si="18"/>
+        <v>3.2772171940109729E-4</v>
+      </c>
+      <c r="K394">
+        <f t="shared" si="19"/>
+        <v>4.109244709837867E-5</v>
+      </c>
+      <c r="L394">
+        <f t="shared" si="20"/>
+        <v>6.557468303030987</v>
+      </c>
       <c r="N394" t="s">
         <v>494</v>
       </c>
@@ -21498,6 +26238,18 @@
       <c r="H395" s="1">
         <v>43072.359178240738</v>
       </c>
+      <c r="J395">
+        <f t="shared" si="18"/>
+        <v>3.5014796490173694E-4</v>
+      </c>
+      <c r="K395">
+        <f t="shared" si="19"/>
+        <v>2.0093775583944762E-3</v>
+      </c>
+      <c r="L395">
+        <f t="shared" si="20"/>
+        <v>3.3157506212000953</v>
+      </c>
       <c r="N395" t="s">
         <v>495</v>
       </c>
@@ -21548,6 +26300,18 @@
       <c r="H396" s="1">
         <v>43072.362164351849</v>
       </c>
+      <c r="J396">
+        <f t="shared" si="18"/>
+        <v>2.1014082489756447E-4</v>
+      </c>
+      <c r="K396">
+        <f t="shared" si="19"/>
+        <v>9.8421069203880052E-5</v>
+      </c>
+      <c r="L396">
+        <f t="shared" si="20"/>
+        <v>0.77294264545196256</v>
+      </c>
       <c r="N396" t="s">
         <v>497</v>
       </c>
@@ -21598,6 +26362,18 @@
       <c r="H397" s="1">
         <v>43072.370682870373</v>
       </c>
+      <c r="J397">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L397">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N397" t="s">
         <v>499</v>
       </c>
@@ -21648,6 +26424,18 @@
       <c r="H398" s="1">
         <v>43072.377824074072</v>
       </c>
+      <c r="J398">
+        <f t="shared" si="18"/>
+        <v>1.2029450303430167E-5</v>
+      </c>
+      <c r="K398">
+        <f t="shared" si="19"/>
+        <v>1.8483066604346732E-5</v>
+      </c>
+      <c r="L398">
+        <f t="shared" si="20"/>
+        <v>0.35297892207495352</v>
+      </c>
       <c r="N398" t="s">
         <v>500</v>
       </c>
@@ -21698,6 +26486,18 @@
       <c r="H399" s="1">
         <v>43072.380798611113</v>
       </c>
+      <c r="J399">
+        <f t="shared" si="18"/>
+        <v>3.8586996929979023E-4</v>
+      </c>
+      <c r="K399">
+        <f t="shared" si="19"/>
+        <v>3.5321159929679879E-4</v>
+      </c>
+      <c r="L399">
+        <f t="shared" si="20"/>
+        <v>3.7737714087920722</v>
+      </c>
       <c r="N399" t="s">
         <v>501</v>
       </c>
@@ -21748,6 +26548,18 @@
       <c r="H400" s="1">
         <v>43072.360393518517</v>
       </c>
+      <c r="J400">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N400" t="s">
         <v>503</v>
       </c>
@@ -21798,6 +26610,18 @@
       <c r="H401" s="1">
         <v>43072.379571759258</v>
       </c>
+      <c r="J401">
+        <f t="shared" si="18"/>
+        <v>4.5837532027803718E-6</v>
+      </c>
+      <c r="K401">
+        <f t="shared" si="19"/>
+        <v>3.044012479591629E-5</v>
+      </c>
+      <c r="L401">
+        <f t="shared" si="20"/>
+        <v>3.8675874011111091</v>
+      </c>
       <c r="N401" t="s">
         <v>504</v>
       </c>
@@ -21845,6 +26669,18 @@
       <c r="H402" s="1">
         <v>43072.369201388887</v>
       </c>
+      <c r="J402">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L402">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N402" t="s">
         <v>505</v>
       </c>
@@ -21895,6 +26731,18 @@
       <c r="H403" s="1">
         <v>43072.361886574072</v>
       </c>
+      <c r="J403">
+        <f t="shared" si="18"/>
+        <v>7.8501806896724702E-5</v>
+      </c>
+      <c r="K403">
+        <f t="shared" si="19"/>
+        <v>2.8328985089842718E-4</v>
+      </c>
+      <c r="L403">
+        <f t="shared" si="20"/>
+        <v>0.67108588607493402</v>
+      </c>
       <c r="N403" t="s">
         <v>506</v>
       </c>
@@ -21945,6 +26793,18 @@
       <c r="H404" s="1">
         <v>43072.360462962963</v>
       </c>
+      <c r="J404">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N404" t="s">
         <v>508</v>
       </c>
@@ -21992,6 +26852,18 @@
       <c r="H405" s="1">
         <v>43072.36241898148</v>
       </c>
+      <c r="J405">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L405">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N405" t="s">
         <v>509</v>
       </c>
@@ -22042,6 +26914,18 @@
       <c r="H406" s="1">
         <v>43072.359699074077</v>
       </c>
+      <c r="J406">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N406" t="s">
         <v>510</v>
       </c>
@@ -22089,6 +26973,18 @@
       <c r="H407" s="1">
         <v>43072.366111111114</v>
       </c>
+      <c r="J407">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N407" t="s">
         <v>511</v>
       </c>
@@ -22139,6 +27035,18 @@
       <c r="H408" s="1">
         <v>43072.364999999998</v>
       </c>
+      <c r="J408">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N408" t="s">
         <v>512</v>
       </c>
@@ -22189,6 +27097,18 @@
       <c r="H409" s="1">
         <v>43072.364837962959</v>
       </c>
+      <c r="J409">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="N409" t="s">
         <v>514</v>
       </c>
@@ -22239,6 +27159,18 @@
       <c r="H410" s="1">
         <v>43072.364629629628</v>
       </c>
+      <c r="J410">
+        <f t="shared" si="18"/>
+        <v>3.8449659697903371E-5</v>
+      </c>
+      <c r="K410">
+        <f t="shared" si="19"/>
+        <v>1.4838733819999561E-4</v>
+      </c>
+      <c r="L410">
+        <f t="shared" si="20"/>
+        <v>4.7535459744449327</v>
+      </c>
       <c r="N410" t="s">
         <v>515</v>
       </c>
@@ -22289,6 +27221,18 @@
       <c r="H411" s="1">
         <v>43072.373414351852</v>
       </c>
+      <c r="J411">
+        <f t="shared" si="18"/>
+        <v>7.2044310499563835E-5</v>
+      </c>
+      <c r="K411">
+        <f t="shared" si="19"/>
+        <v>2.3505596779926918E-4</v>
+      </c>
+      <c r="L411">
+        <f t="shared" si="20"/>
+        <v>1.1730427552610081</v>
+      </c>
       <c r="N411" t="s">
         <v>516</v>
       </c>
@@ -22339,6 +27283,18 @@
       <c r="H412" s="1">
         <v>43072.369270833333</v>
       </c>
+      <c r="J412">
+        <f t="shared" si="18"/>
+        <v>7.3224794000736892E-5</v>
+      </c>
+      <c r="K412">
+        <f t="shared" si="19"/>
+        <v>1.9465231940074545E-4</v>
+      </c>
+      <c r="L412">
+        <f t="shared" si="20"/>
+        <v>2.4536398811779918</v>
+      </c>
       <c r="N412" t="s">
         <v>517</v>
       </c>
@@ -22389,6 +27345,18 @@
       <c r="H413" s="1">
         <v>43072.364733796298</v>
       </c>
+      <c r="J413">
+        <f t="shared" si="18"/>
+        <v>1.048107060341863E-5</v>
+      </c>
+      <c r="K413">
+        <f t="shared" si="19"/>
+        <v>9.073510298662768E-6</v>
+      </c>
+      <c r="L413">
+        <f>ABS(G413-T413)</f>
+        <v>7.4336774867840631</v>
+      </c>
       <c r="N413" t="s">
         <v>518</v>
       </c>
@@ -22439,6 +27407,18 @@
       <c r="H414" s="1">
         <v>43072.379571759258</v>
       </c>
+      <c r="J414">
+        <f t="shared" si="18"/>
+        <v>1.5315878599153621E-5</v>
+      </c>
+      <c r="K414">
+        <f t="shared" si="19"/>
+        <v>1.4387463103560094E-5</v>
+      </c>
+      <c r="L414">
+        <f t="shared" si="20"/>
+        <v>1.2222121888260062</v>
+      </c>
       <c r="N414" t="s">
         <v>519</v>
       </c>
@@ -22486,6 +27466,18 @@
       <c r="H415" s="1">
         <v>43072.377939814818</v>
       </c>
+      <c r="J415">
+        <f t="shared" si="18"/>
+        <v>8.7760709988060626E-7</v>
+      </c>
+      <c r="K415">
+        <f>ABS(F415-S415)</f>
+        <v>3.2190836023460179E-6</v>
+      </c>
+      <c r="L415">
+        <f t="shared" si="20"/>
+        <v>4.3589875079229614</v>
+      </c>
       <c r="N415" t="s">
         <v>520</v>
       </c>
@@ -22511,9 +27503,34 @@
         <v>43072.381689814814</v>
       </c>
     </row>
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J416" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K416" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L416" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="417" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J417" s="3">
+        <f>AVERAGE(J2:J415)</f>
+        <v>2.8358198784312559E-4</v>
+      </c>
+      <c r="K417" s="3">
+        <f>AVERAGE(K2:K415)</f>
+        <v>3.3710012635582219E-4</v>
+      </c>
+      <c r="L417" s="3">
+        <f>AVERAGE(L2:L415)</f>
+        <v>2.7310299562358411</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
